--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.228</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.332</v>
+        <v>27.547</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.417</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.921</v>
+        <v>30.688</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.426</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.173</v>
+        <v>27.077</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.53985231318128</v>
+        <v>26.70719687358217</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.34431658193888</v>
+        <v>26.70719689418802</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.13042586120865</v>
+        <v>26.70719690093914</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.31113740490969</v>
+        <v>26.70719687690074</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.25259694772624</v>
+        <v>26.70719689968136</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.43896406701252</v>
+        <v>26.707196907145</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.35910057564003</v>
+        <v>26.70719688481579</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.79851349464982</v>
+        <v>26.70719690475316</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.45960695910425</v>
+        <v>26.70719691128526</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.74000679214267</v>
+        <v>26.70719690293407</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.40459121951056</v>
+        <v>26.70719692509685</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.25383178582457</v>
+        <v>26.7071969324478</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.70371664733649</v>
+        <v>26.70719689935932</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.17432971403937</v>
+        <v>26.70719693071672</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.94431783801258</v>
+        <v>26.70719694099038</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.11441708018606</v>
+        <v>26.70719690658827</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.02714010619726</v>
+        <v>26.70719692863521</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.14440041281323</v>
+        <v>26.70719693575946</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.27064878740184</v>
+        <v>26.70719691060247</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.43739339399162</v>
+        <v>26.70719693497628</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.98967362854139</v>
+        <v>26.70719694285243</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.01200448012978</v>
+        <v>26.70719691963827</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.52300785490084</v>
+        <v>26.70719694096998</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.50406049686415</v>
+        <v>26.70719694786311</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.32387055675776</v>
+        <v>26.70719693820512</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.22173343665146</v>
+        <v>26.70719696196789</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45.46418689517344</v>
+        <v>26.70719696973051</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.99958871312786</v>
+        <v>26.70719693319868</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.1587517492902</v>
+        <v>26.70719696674909</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>47.4333138052763</v>
+        <v>26.70719697759057</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.08498325148581</v>
+        <v>26.70719695054843</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.1190441517036</v>
+        <v>26.70719697189251</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40.34541785096947</v>
+        <v>26.70719697882837</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.8419304945115</v>
+        <v>26.70719695550877</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.142845465292</v>
+        <v>26.70719697910554</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39.81573175498512</v>
+        <v>26.70719698677343</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.88818614368431</v>
+        <v>26.7071969649464</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.51681651958283</v>
+        <v>26.70719698559805</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44.60327028579301</v>
+        <v>26.7071969923089</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.68641517460031</v>
+        <v>26.70719698210215</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.77712268588952</v>
+        <v>26.7071970051078</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>54.21062523710545</v>
+        <v>26.70719701258352</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.38619172420342</v>
+        <v>26.70719697570066</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>49.72965011429143</v>
+        <v>26.70719700818148</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>56.17058217737566</v>
+        <v>26.70719701873628</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.54767655603961</v>
+        <v>26.70719686303699</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.66927387632442</v>
+        <v>26.70719688393262</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.25464990377781</v>
+        <v>26.70719689060791</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.23658708231006</v>
+        <v>26.70719686570482</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.52861020835842</v>
+        <v>26.70719688880581</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.49311735905782</v>
+        <v>26.70719689618562</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.33852066714224</v>
+        <v>26.70719687358558</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.08457838962824</v>
+        <v>26.70719689380334</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.55156524694828</v>
+        <v>26.70719690026207</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.60953662644545</v>
+        <v>26.7071968916561</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.57285421148318</v>
+        <v>26.70719691405297</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.20754318318922</v>
+        <v>26.70719692129004</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.29991553603071</v>
+        <v>26.70719688810819</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.25367590196794</v>
+        <v>26.70719691990658</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.71797911083215</v>
+        <v>26.70719693006484</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.3187522055411</v>
+        <v>26.70719689579335</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.56093481220529</v>
+        <v>26.7071969181417</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.44553824707184</v>
+        <v>26.7071969251917</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.42375063793379</v>
+        <v>26.70719689920162</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.954688910715</v>
+        <v>26.70719692390864</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.24982582958424</v>
+        <v>26.70719693170271</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.24454689390113</v>
+        <v>26.70719690822873</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.07410817711015</v>
+        <v>26.70719692985207</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.83018868224219</v>
+        <v>26.70719693667336</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.44788267014255</v>
+        <v>26.70719692679883</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>41.65434544488413</v>
+        <v>26.70719695079973</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>45.63935180292742</v>
+        <v>26.70719695844917</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.83927705809611</v>
+        <v>26.7071969218387</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.5004031567031</v>
+        <v>26.70719695584778</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.42065874995065</v>
+        <v>26.70719696657628</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.91891152664616</v>
+        <v>26.70719694161444</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.28455547342126</v>
+        <v>26.70719696325706</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.27644898025724</v>
+        <v>26.70719697011229</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.68575283646364</v>
+        <v>26.70719694610192</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.35322701703396</v>
+        <v>26.70719697002873</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.76695643982485</v>
+        <v>26.70719697760747</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.84547803150334</v>
+        <v>26.70719695557701</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.79472733975805</v>
+        <v>26.70719697651751</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.65445059688794</v>
+        <v>26.70719698315035</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>38.53402041555653</v>
+        <v>26.70719697277699</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>50.93032700892567</v>
+        <v>26.70719699600986</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>55.09759987486549</v>
+        <v>26.7071970033728</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.9210841948531</v>
+        <v>26.70719696638954</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50.76977792405287</v>
+        <v>26.70719699932466</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.85363390616486</v>
+        <v>26.70719700975675</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.54767655603961</v>
+        <v>26.70719686303699</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.66927387632442</v>
+        <v>26.70719688393262</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.25464990377781</v>
+        <v>26.70719689060791</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12.23658708231006</v>
+        <v>26.70719686570482</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.52861020835842</v>
+        <v>26.70719688880581</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.49311735905782</v>
+        <v>26.70719689618562</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.33852066714224</v>
+        <v>26.70719687358558</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.08457838962824</v>
+        <v>26.70719689380334</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.55156524694828</v>
+        <v>26.70719690026207</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.60953662644545</v>
+        <v>26.7071968916561</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.57285421148318</v>
+        <v>26.70719691405297</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.20754318318922</v>
+        <v>26.70719692129004</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.29991553603071</v>
+        <v>26.70719688810819</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.25367590196794</v>
+        <v>26.70719691990658</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.71797911083215</v>
+        <v>26.70719693006484</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.3187522055411</v>
+        <v>26.70719689579335</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.56093481220529</v>
+        <v>26.7071969181417</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.44553824707184</v>
+        <v>26.7071969251917</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.42375063793379</v>
+        <v>26.70719689920162</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.954688910715</v>
+        <v>26.70719692390864</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.24982582958424</v>
+        <v>26.70719693170271</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.24454689390113</v>
+        <v>26.70719690822873</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.07410817711015</v>
+        <v>26.70719692985207</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.83018868224219</v>
+        <v>26.70719693667336</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.44788267014255</v>
+        <v>26.70719692679883</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.65434544488413</v>
+        <v>26.70719695079973</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.63935180292742</v>
+        <v>26.70719695844917</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.83927705809611</v>
+        <v>26.7071969218387</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.5004031567031</v>
+        <v>26.70719695584778</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.42065874995065</v>
+        <v>26.70719696657628</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.91891152664616</v>
+        <v>26.70719694161444</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.28455547342126</v>
+        <v>26.70719696325706</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.27644898025724</v>
+        <v>26.70719697011229</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.68575283646364</v>
+        <v>26.70719694610192</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.35322701703396</v>
+        <v>26.70719697002873</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.76695643982485</v>
+        <v>26.70719697760747</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.84547803150334</v>
+        <v>26.70719695557701</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.79472733975805</v>
+        <v>26.70719697651751</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.65445059688794</v>
+        <v>26.70719698315035</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.53402041555653</v>
+        <v>26.70719697277699</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.93032700892567</v>
+        <v>26.70719699600986</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>55.09759987486549</v>
+        <v>26.7071970033728</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.9210841948531</v>
+        <v>26.70719696638954</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>50.76977792405287</v>
+        <v>26.70719699932466</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.85363390616486</v>
+        <v>26.70719700975675</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.23285265813377</v>
+        <v>26.70719686787614</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.06768877015964</v>
+        <v>26.70719688858945</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.84885337034268</v>
+        <v>26.70719689537295</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8.738447761645704</v>
+        <v>26.70719687087177</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.71345539315403</v>
+        <v>26.70719689377121</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.89437733509771</v>
+        <v>26.70719690127064</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.74711920549498</v>
+        <v>26.70719687874863</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.21585481095005</v>
+        <v>26.70719689878998</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.87217080755644</v>
+        <v>26.70719690535341</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.16466318410613</v>
+        <v>26.70719689704483</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.85490868786431</v>
+        <v>26.70719691932007</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.69827526582645</v>
+        <v>26.70719692670803</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.1944889936814</v>
+        <v>26.70719689364083</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>32.71139422490793</v>
+        <v>26.70719692516177</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>38.47389955734748</v>
+        <v>26.7071969354847</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.9478550144424</v>
+        <v>26.70719690117224</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.90058395440486</v>
+        <v>26.70719692333659</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.01323426267478</v>
+        <v>26.70719693049692</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10.83852784148868</v>
+        <v>26.70719690487233</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.0494721517912</v>
+        <v>26.70719692937594</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.59667808629803</v>
+        <v>26.70719693729199</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.54873715368333</v>
+        <v>26.70719691388054</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.09837811700203</v>
+        <v>26.70719693532585</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.07497668570109</v>
+        <v>26.7071969422539</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.89610031554826</v>
+        <v>26.70719693263025</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.830950485092</v>
+        <v>26.70719695651543</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.06744235574428</v>
+        <v>26.70719696431915</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.62930187863844</v>
+        <v>26.70719692778308</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>37.84943890532084</v>
+        <v>26.70719696151216</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.11703296747819</v>
+        <v>26.70719697240856</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.43391901517852</v>
+        <v>26.70719694617562</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.51646124686589</v>
+        <v>26.70719696763758</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.73872680309667</v>
+        <v>26.70719697460852</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.95176243843436</v>
+        <v>26.70719695086632</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.30624921568008</v>
+        <v>26.70719697459341</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.97461624006422</v>
+        <v>26.70719698230008</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.98254568319191</v>
+        <v>26.70719696029664</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.65800939858039</v>
+        <v>26.70719698106235</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.74049431736206</v>
+        <v>26.70719698780714</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.81206371573593</v>
+        <v>26.70719697762302</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.94907432264247</v>
+        <v>26.70719700075116</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>51.37677916689645</v>
+        <v>26.70719700826618</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.54852529207185</v>
+        <v>26.7071969713469</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.9658795283837</v>
+        <v>26.7071970040071</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.40060995545429</v>
+        <v>26.70719701461529</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.76775343716663</v>
+        <v>26.70719687494033</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.6107451155868</v>
+        <v>26.70719689553032</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.3790781750259</v>
+        <v>26.70719690225279</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.59445002213291</v>
+        <v>26.707196878273</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.57848196581669</v>
+        <v>26.70719690103609</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.74522630718685</v>
+        <v>26.70719690846806</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.64467610409277</v>
+        <v>26.7071968861845</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.12132847652309</v>
+        <v>26.70719690610653</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.76525116834464</v>
+        <v>26.70719691261091</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.95526382498419</v>
+        <v>26.70719690418349</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.66643200357364</v>
+        <v>26.70719692632279</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>41.50049110689993</v>
+        <v>26.70719693364074</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.84379146948851</v>
+        <v>26.70719690052705</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.37309581916009</v>
+        <v>26.70719693186032</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>43.11605452374675</v>
+        <v>26.70719694209038</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.60412534075708</v>
+        <v>26.70719690805533</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.55784191507093</v>
+        <v>26.70719693008493</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.65298704047738</v>
+        <v>26.70719693717824</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>15.82521724580748</v>
+        <v>26.70719691209402</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.03726125773614</v>
+        <v>26.70719693644866</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.56512257327056</v>
+        <v>26.7071969442906</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.57371820850978</v>
+        <v>26.70719692112865</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.12434619047625</v>
+        <v>26.70719694244358</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>38.08403308757292</v>
+        <v>26.70719694930677</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.80986719455572</v>
+        <v>26.70719693958047</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>42.75814627453308</v>
+        <v>26.70719696331788</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>46.98045935047743</v>
+        <v>26.70719697104546</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.40310339261256</v>
+        <v>26.70719693449276</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.62471777118748</v>
+        <v>26.70719696801678</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.4629527656143</v>
+        <v>26.70719695183306</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.53506481081414</v>
+        <v>26.70719697315979</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>41.74038362382524</v>
+        <v>26.70719698006808</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.27989530662474</v>
+        <v>26.70719695681328</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.62286022283505</v>
+        <v>26.70719698039087</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.27249839749452</v>
+        <v>26.70719698802827</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.33294778360903</v>
+        <v>26.70719696625024</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>41.9983618598926</v>
+        <v>26.70719698688511</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.06447292733386</v>
+        <v>26.70719699356929</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>39.05837458597806</v>
+        <v>26.70719698330323</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>51.19732884593981</v>
+        <v>26.70719700628462</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>55.61081649974702</v>
+        <v>26.7071970137293</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.68172276218149</v>
+        <v>26.70719697683154</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>51.08314727398754</v>
+        <v>26.70719700928596</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>57.49205550167246</v>
+        <v>26.7071970197988</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.01221820322346</v>
+        <v>26.70719686955862</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.0712211093113</v>
+        <v>26.70719689033373</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>30.70269768846009</v>
+        <v>26.7071968969857</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>13.87021893025454</v>
+        <v>26.70719687263107</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.09300442334205</v>
+        <v>26.70719689559881</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.10850114572869</v>
+        <v>26.70719690295284</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.96800526110844</v>
+        <v>26.70719688052632</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.65348323284585</v>
+        <v>26.70719690062745</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.16508219523234</v>
+        <v>26.70719690706362</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.2102184405737</v>
+        <v>26.70719689846004</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.12417862126232</v>
+        <v>26.7071969207493</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>41.80675343372457</v>
+        <v>26.70719692796264</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.90491883481881</v>
+        <v>26.7071968947591</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.76337090154786</v>
+        <v>26.70719692637407</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>43.29791854181768</v>
+        <v>26.70719693649685</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.25997457740568</v>
+        <v>26.70719690274643</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.44293132443912</v>
+        <v>26.7071969249741</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>35.37769390842642</v>
+        <v>26.70719693199474</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.54253936421633</v>
+        <v>26.70719690656037</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.00796485646032</v>
+        <v>26.70719693113397</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.35857523445119</v>
+        <v>26.70719693889559</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.36420711900389</v>
+        <v>26.70719691560194</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.13644870747525</v>
+        <v>26.70719693710852</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.94106432013191</v>
+        <v>26.7071969439014</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.53871482255443</v>
+        <v>26.70719693402736</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>43.70166354803061</v>
+        <v>26.7071969579219</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>47.74172817857825</v>
+        <v>26.70719696554163</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.92578574039896</v>
+        <v>26.70719692890384</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>43.4967284344506</v>
+        <v>26.70719696272928</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>49.49340626329876</v>
+        <v>26.70719697341309</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.6215549151605</v>
+        <v>26.70719694765604</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.92676769817987</v>
+        <v>26.70719696917915</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.96721005865209</v>
+        <v>26.70719697601096</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.5357233436988</v>
+        <v>26.70719695249181</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.13635157568145</v>
+        <v>26.7071969762865</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.60377251333635</v>
+        <v>26.70719698383934</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.68813921778829</v>
+        <v>26.70719696196707</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>43.5789073284935</v>
+        <v>26.70719698279194</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>47.48560471634038</v>
+        <v>26.70719698940211</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.35247487046072</v>
+        <v>26.70719697902658</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>52.70689465509656</v>
+        <v>26.70719700215723</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>56.92905586006007</v>
+        <v>26.70719700949611</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.74902273661274</v>
+        <v>26.70719697250496</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>52.50567752362161</v>
+        <v>26.70719700525822</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>58.663500215147</v>
+        <v>26.70719701565467</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>13.20868820130809</v>
+        <v>26.70719686647151</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.18064840912291</v>
+        <v>26.70719688728265</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.85346871494095</v>
+        <v>26.70719689399974</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>10.94041528524758</v>
+        <v>26.70719686951189</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.06701968020957</v>
+        <v>26.70719689251947</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.12815606553421</v>
+        <v>26.70719689994549</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>17.0335500196512</v>
+        <v>26.7071968774152</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.63489468648317</v>
+        <v>26.7071968975512</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.18643002552124</v>
+        <v>26.70719690405038</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.43691195135111</v>
+        <v>26.70719689562005</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.24538906986538</v>
+        <v>26.70719691796269</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.96346452625669</v>
+        <v>26.70719692525105</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>18.30251772366003</v>
+        <v>26.70719689210483</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>35.02837285982758</v>
+        <v>26.70719692377464</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>40.62578755001741</v>
+        <v>26.70719693399651</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.85903723888007</v>
+        <v>26.70719689941176</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>27.94944547024175</v>
+        <v>26.70719692167884</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.93554913779632</v>
+        <v>26.70719692876982</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.99366968719131</v>
+        <v>26.70719690317003</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.35682587539773</v>
+        <v>26.70719692778721</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.76412664606508</v>
+        <v>26.70719693562658</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.79956252843971</v>
+        <v>26.70719691221427</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.4823457935132</v>
+        <v>26.70719693375898</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35.33656335942624</v>
+        <v>26.70719694061992</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.1475832684462</v>
+        <v>26.70719693090115</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.1964336251273</v>
+        <v>26.70719695485333</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>44.28342481559959</v>
+        <v>26.70719696255272</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21.7221629146783</v>
+        <v>26.70719692596236</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>40.1521140035353</v>
+        <v>26.70719695984777</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>46.22689246026942</v>
+        <v>26.70719697063863</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.47422544559735</v>
+        <v>26.70719694473605</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.69359566253896</v>
+        <v>26.70719696629859</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>39.78296892473981</v>
+        <v>26.70719697319306</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21.25140429649576</v>
+        <v>26.70719694952663</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.75716899493266</v>
+        <v>26.70719697336492</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>39.27861895541402</v>
+        <v>26.70719698098704</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.38881660430543</v>
+        <v>26.70719695900339</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.19660106278461</v>
+        <v>26.70719697986641</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>44.15057490881673</v>
+        <v>26.70719698653722</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>37.22001135569985</v>
+        <v>26.7071969762965</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>49.46527957077136</v>
+        <v>26.70719699948227</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>53.73409793365011</v>
+        <v>26.70719700689173</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.79030388230152</v>
+        <v>26.70719696993444</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.41618919649494</v>
+        <v>26.70719700274771</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>55.6484365531227</v>
+        <v>26.70719701323953</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>14.39387757441282</v>
+        <v>26.70719687136065</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.42492985719061</v>
+        <v>26.70719689230085</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.22826085836914</v>
+        <v>26.70719689911972</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.09743108777612</v>
+        <v>26.70719687457603</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.28931353340122</v>
+        <v>26.7071968977263</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.49477054899197</v>
+        <v>26.70719690526484</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.22450413119835</v>
+        <v>26.70719688258411</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.88287487801156</v>
+        <v>26.70719690284498</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.56064072792874</v>
+        <v>26.70719690944264</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.64525461488427</v>
+        <v>26.70719690089369</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.53895661571055</v>
+        <v>26.70719692340146</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.40681265955838</v>
+        <v>26.70719693082147</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.45063427072795</v>
+        <v>26.70719689724639</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.26660008215158</v>
+        <v>26.70719692911261</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.06293163559192</v>
+        <v>26.70719693948936</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.32336677377494</v>
+        <v>26.7071969050065</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.48496594329778</v>
+        <v>26.70719692741153</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.6170366206799</v>
+        <v>26.70719693460757</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14.41622923218073</v>
+        <v>26.70719690894475</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.85803907303779</v>
+        <v>26.70719693371444</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>32.42674244306264</v>
+        <v>26.70719694166996</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.25622243082265</v>
+        <v>26.70719691809792</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.00773438120294</v>
+        <v>26.70719693977611</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.00312484912391</v>
+        <v>26.70719694673869</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.61685815856279</v>
+        <v>26.70719693687385</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>41.76940672750803</v>
+        <v>26.70719696100644</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.0271982958544</v>
+        <v>26.70719696884297</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.11989753412636</v>
+        <v>26.70719693177372</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>41.65837812978329</v>
+        <v>26.70719696586907</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.9556124019239</v>
+        <v>26.70719697681979</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.51167668587342</v>
+        <v>26.70719694990587</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.7963756826787</v>
+        <v>26.70719697159813</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>41.03993415757543</v>
+        <v>26.70719697860576</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.22282263637908</v>
+        <v>26.70719695482678</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.80075651661961</v>
+        <v>26.70719697880846</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.49268975567794</v>
+        <v>26.70719698655569</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.37976492397807</v>
+        <v>26.70719696439816</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>41.25061683491064</v>
+        <v>26.70719698538669</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.35370130062603</v>
+        <v>26.70719699216699</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.23563450871684</v>
+        <v>26.70719698175549</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>50.58429756350075</v>
+        <v>26.70719700512048</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>55.03508075566721</v>
+        <v>26.7071970126699</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>31.76022049819434</v>
+        <v>26.70719697523842</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>50.48567520382893</v>
+        <v>26.70719700824908</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.9529018935129</v>
+        <v>26.7071970189131</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.83139937236559</v>
+        <v>26.70719687577878</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.83402169560546</v>
+        <v>26.70719689639504</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.44397434937643</v>
+        <v>26.70719690299183</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>18.07875807815023</v>
+        <v>26.70719687928213</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.23925730863444</v>
+        <v>26.70719690207427</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.23092321355959</v>
+        <v>26.70719690936729</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.22169778051111</v>
+        <v>26.70719688720487</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.85273915168609</v>
+        <v>26.70719690715231</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.34351306086962</v>
+        <v>26.70719691353509</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.45298482387139</v>
+        <v>26.70719690493656</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.30643138237721</v>
+        <v>26.70719692705465</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>45.96375343372013</v>
+        <v>26.70719693420147</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.10491472018003</v>
+        <v>26.70719690107697</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>41.87743345085495</v>
+        <v>26.70719693245021</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>47.37909255499468</v>
+        <v>26.70719694248902</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.59253766122554</v>
+        <v>26.70719690823843</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.70184623658493</v>
+        <v>26.70719693029119</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.61106095238689</v>
+        <v>26.70719693725137</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.2475057439105</v>
+        <v>26.70719691245415</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>33.6315560779979</v>
+        <v>26.70719693683439</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>37.95388663337993</v>
+        <v>26.70719694452917</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.10098112652852</v>
+        <v>26.7071969215058</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>38.8020910056229</v>
+        <v>26.70719694284314</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>42.58199113750932</v>
+        <v>26.70719694957753</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>35.26713808819305</v>
+        <v>26.70719693972678</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.34870117215775</v>
+        <v>26.70719696343274</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.35892050140635</v>
+        <v>26.70719697097931</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.63213572311779</v>
+        <v>26.7071969344718</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>47.09083683940348</v>
+        <v>26.70719696803107</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>53.04849150200884</v>
+        <v>26.70719697862289</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.43610912065296</v>
+        <v>26.70719695199725</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.65972955057622</v>
+        <v>26.70719697334662</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.66903385289808</v>
+        <v>26.70719698011523</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.69231162949948</v>
+        <v>26.70719695718736</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.20278189272687</v>
+        <v>26.70719698078997</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.63574165841922</v>
+        <v>26.70719698827295</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.86095785468196</v>
+        <v>26.70719696665297</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.67291041562454</v>
+        <v>26.70719698730973</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>50.54948798646258</v>
+        <v>26.70719699385876</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>43.51340272830878</v>
+        <v>26.70719698352599</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>55.77621194468327</v>
+        <v>26.70719700646722</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.96224808450231</v>
+        <v>26.70719701373191</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.90309184494548</v>
+        <v>26.70719697690949</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>55.53540301007167</v>
+        <v>26.70719700939834</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>61.64567868015094</v>
+        <v>26.70719701969863</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.467782513857689</v>
+        <v>26.70719685535759</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>19.02870160414557</v>
+        <v>26.70719687542297</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.49787924372323</v>
+        <v>26.70719688188817</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.722510046827608</v>
+        <v>26.70719685731844</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.39487791608655</v>
+        <v>26.70719687950155</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.23084760424131</v>
+        <v>26.7071968866491</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.47819445436999</v>
+        <v>26.70719686479104</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.68248912491683</v>
+        <v>26.70719688420548</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.03707302516061</v>
+        <v>26.70719689046093</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.54505250483302</v>
+        <v>26.70719688242044</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.94256797131049</v>
+        <v>26.70719690393541</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.46063378665769</v>
+        <v>26.70719691095791</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>12.73479204433892</v>
+        <v>26.7071968793953</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.83387721474011</v>
+        <v>26.70719690993022</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>34.12104107016974</v>
+        <v>26.70719691976878</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.73941794711265</v>
+        <v>26.70719688671799</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.37335497813019</v>
+        <v>26.70719690818031</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.14105477703361</v>
+        <v>26.70719691501384</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>7.431615749163996</v>
+        <v>26.70719688938859</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.29030450791633</v>
+        <v>26.70719691311608</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.4561323829909</v>
+        <v>26.70719692067082</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>13.86638340380266</v>
+        <v>26.70719689795879</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.1081858336466</v>
+        <v>26.70719691872485</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.75119220514954</v>
+        <v>26.70719692533669</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.83033577694607</v>
+        <v>26.70719691605735</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>33.41698283379964</v>
+        <v>26.7071969391155</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.28354407360175</v>
+        <v>26.70719694654363</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.7394286736606</v>
+        <v>26.70719691166978</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>33.473394757397</v>
+        <v>26.70719694433053</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>39.21543830537416</v>
+        <v>26.7071969547296</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.55948569888287</v>
+        <v>26.70719693174751</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.32019804173635</v>
+        <v>26.70719695253688</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.19699000662947</v>
+        <v>26.70719695918208</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.92239944797824</v>
+        <v>26.70719693550824</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.92127528357597</v>
+        <v>26.70719695849175</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.20769411186045</v>
+        <v>26.7071969658383</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.69097581788501</v>
+        <v>26.70719694451785</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>34.05564726945998</v>
+        <v>26.70719696463278</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>37.80404883249059</v>
+        <v>26.70719697106241</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.11792529179368</v>
+        <v>26.70719696127131</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>42.89405438362272</v>
+        <v>26.70719698359746</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>46.9440045923616</v>
+        <v>26.70719699074708</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.00384352734419</v>
+        <v>26.70719695546935</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>42.93045072127058</v>
+        <v>26.70719698710602</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>48.83883940648396</v>
+        <v>26.70719699721851</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>11.66670927639599</v>
+        <v>26.70719685888213</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.50433581555803</v>
+        <v>26.70719687928514</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.99154498901861</v>
+        <v>26.70719688580434</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.097543672367838</v>
+        <v>26.70719686107088</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.07569747290628</v>
+        <v>26.70719688362725</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.93167919173593</v>
+        <v>26.7071968908345</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.97960387477437</v>
+        <v>26.70719686868834</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.45126214894535</v>
+        <v>26.70719688842944</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.82332797360859</v>
+        <v>26.70719689473716</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.04236844511921</v>
+        <v>26.70719688638847</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.72785471205905</v>
+        <v>26.7071969082549</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.26559732241476</v>
+        <v>26.70719691532781</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.95607844928891</v>
+        <v>26.70719688309553</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.47692744296942</v>
+        <v>26.70719691414424</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.79168754200423</v>
+        <v>26.70719692406499</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>14.66611947202595</v>
+        <v>26.70719689115404</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.60339644859491</v>
+        <v>26.70719691297826</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.3833700603808</v>
+        <v>26.70719691986583</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>11.54286417356097</v>
+        <v>26.70719689408351</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.73678590616382</v>
+        <v>26.70719691821109</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.91625843995143</v>
+        <v>26.70719692582558</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>18.13165462723205</v>
+        <v>26.70719690282618</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.66657311331423</v>
+        <v>26.70719692394239</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.32149041129934</v>
+        <v>26.70719693060652</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.096401151158</v>
+        <v>26.70719692101374</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.00285238090177</v>
+        <v>26.70719694444898</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>41.88290701547379</v>
+        <v>26.70719695192783</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.70520472133795</v>
+        <v>26.70719691633159</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.90152237846455</v>
+        <v>26.70719694954306</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.66239014184109</v>
+        <v>26.70719696002437</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.47374316097654</v>
+        <v>26.70719693662062</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.53711351609103</v>
+        <v>26.70719695775948</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.42574906579657</v>
+        <v>26.70719696445948</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>20.02029076408409</v>
+        <v>26.70719694064217</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.35365714120713</v>
+        <v>26.70719696401206</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>37.65324062265785</v>
+        <v>26.70719697141919</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.95107830202408</v>
+        <v>26.7071969498368</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.60822173801743</v>
+        <v>26.7071969702899</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.36811107553528</v>
+        <v>26.70719697677254</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.38846692906281</v>
+        <v>26.70719696668115</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.48676451793055</v>
+        <v>26.70719698937178</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.5485213997328</v>
+        <v>26.70719699657282</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.9792548786398</v>
+        <v>26.70719696058202</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>47.36716806364453</v>
+        <v>26.70719699275055</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>53.29372786066517</v>
+        <v>26.70719700294643</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>9.144936298013128</v>
+        <v>26.70719685594868</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>19.79222073342961</v>
+        <v>26.70719687611468</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.2319676758877</v>
+        <v>26.7071968825781</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>6.516191859785977</v>
+        <v>26.70719685804527</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.28397563004896</v>
+        <v>26.70719688033963</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.08744380553993</v>
+        <v>26.70719688748521</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.30639824755609</v>
+        <v>26.70719686554156</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.59412216940878</v>
+        <v>26.70719688505335</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.92026932663921</v>
+        <v>26.70719689130709</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.4007831563597</v>
+        <v>26.70719688321467</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.87923706308865</v>
+        <v>26.70719690483122</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.36096567970945</v>
+        <v>26.7071969118422</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.53336392266067</v>
+        <v>26.70719688014454</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.76411269425861</v>
+        <v>26.7071969108326</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.00646625851817</v>
+        <v>26.70719692066844</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>11.6401717595442</v>
+        <v>26.70719688750966</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.36960932135569</v>
+        <v>26.70719690908091</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.10046573604691</v>
+        <v>26.7071969159107</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>8.441485762838809</v>
+        <v>26.70719689031433</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.40569397680806</v>
+        <v>26.70719691416224</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.53082540384223</v>
+        <v>26.70719692171286</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.92488351042067</v>
+        <v>26.70719689891908</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.2589490796298</v>
+        <v>26.70719691979053</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.86634980890384</v>
+        <v>26.70719692639875</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.91736185203778</v>
+        <v>26.70719691707312</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.59553257074406</v>
+        <v>26.70719694023996</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.4170621606451</v>
+        <v>26.70719694765346</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.76189682270674</v>
+        <v>26.70719691263729</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>34.64145662274444</v>
+        <v>26.7071969454638</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.32739984963256</v>
+        <v>26.70719695585719</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.74569169664647</v>
+        <v>26.70719693300232</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.60803481183043</v>
+        <v>26.70719695389869</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.44077110572111</v>
+        <v>26.70719696053612</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.22328503277093</v>
+        <v>26.70719693690798</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.33446716901447</v>
+        <v>26.70719696000979</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.57221301003374</v>
+        <v>26.70719696734773</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.05297122759919</v>
+        <v>26.70719694596847</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.51583903865542</v>
+        <v>26.70719696618694</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.22165853489391</v>
+        <v>26.70719697260904</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>32.50058253452414</v>
+        <v>26.70719696278152</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.37503040290996</v>
+        <v>26.70719698521155</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.37069780653871</v>
+        <v>26.70719699234338</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.30527544697399</v>
+        <v>26.70719695692085</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>44.38683067448227</v>
+        <v>26.70719698872036</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.22812598347961</v>
+        <v>26.707196998821</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.638752418951192</v>
+        <v>26.70719685098454</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>15.94739572475548</v>
+        <v>26.7071968705746</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.27211220044803</v>
+        <v>26.70719687685775</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.71494758765617</v>
+        <v>26.70719685253684</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.10843706375431</v>
+        <v>26.70719687419446</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.78473182441792</v>
+        <v>26.70719688114075</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>8.249346560984083</v>
+        <v>26.70719685972591</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.20984253692911</v>
+        <v>26.70719687868045</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.4247596811534</v>
+        <v>26.70719688475976</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.11511467430719</v>
+        <v>26.70719687698327</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.25986302251736</v>
+        <v>26.7071968979803</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.62693456626692</v>
+        <v>26.7071969048013</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>9.522118140144432</v>
+        <v>26.70719687422266</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.23661958529113</v>
+        <v>26.70719690403426</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.30372879016548</v>
+        <v>26.70719691359578</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>8.330835773445123</v>
+        <v>26.70719688192458</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>19.69627031799888</v>
+        <v>26.70719690288298</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.30468810925603</v>
+        <v>26.7071969095252</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>4.86852255005493</v>
+        <v>26.70719688418154</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.43039470674682</v>
+        <v>26.70719690735192</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.42016977158126</v>
+        <v>26.70719691469517</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.08103648138413</v>
+        <v>26.70719689245362</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.06335003733336</v>
+        <v>26.7071969127321</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.55236573682053</v>
+        <v>26.70719691915884</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.81061425589262</v>
+        <v>26.70719691017763</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.12789778584363</v>
+        <v>26.70719693268358</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.82554102474052</v>
+        <v>26.70719693989955</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>12.92490396023395</v>
+        <v>26.70719690607963</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.24957439389783</v>
+        <v>26.70719693797352</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.74898912076445</v>
+        <v>26.70719694808146</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.70234811446543</v>
+        <v>26.70719692702523</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.2044099671144</v>
+        <v>26.70719694733265</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.91545861142122</v>
+        <v>26.70719695378999</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.92596014342313</v>
+        <v>26.70719693039853</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.63891934311874</v>
+        <v>26.70719695284923</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.74214120093986</v>
+        <v>26.70719695998807</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.48868446640219</v>
+        <v>26.70719693913123</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.60338882754056</v>
+        <v>26.70719695877986</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.19155306414362</v>
+        <v>26.70719696502771</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.65736065637174</v>
+        <v>26.70719695554448</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>40.17366692895595</v>
+        <v>26.70719697734061</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>44.04394821109653</v>
+        <v>26.70719698428414</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.71402091614187</v>
+        <v>26.70719695003227</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>40.24637941423556</v>
+        <v>26.70719698093553</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>45.90229126015429</v>
+        <v>26.70719699076212</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.77957316214409</v>
+        <v>26.7071968695783</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.76023951002673</v>
+        <v>26.70719689053931</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.58715591064921</v>
+        <v>26.70719689739578</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.41034760889255</v>
+        <v>26.70719687277517</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.54655416160954</v>
+        <v>26.70719689594844</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.77804693255965</v>
+        <v>26.70719690352855</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.5345916481831</v>
+        <v>26.7071968807879</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.14426072468639</v>
+        <v>26.70719690106891</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.8448088959808</v>
+        <v>26.70719690770294</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.04795792512576</v>
+        <v>26.70719689925402</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.88066969201186</v>
+        <v>26.70719692179262</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.76872318351094</v>
+        <v>26.70719692925594</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.95196323538121</v>
+        <v>26.70719689571395</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.69117314057968</v>
+        <v>26.70719692761182</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>40.52336785940429</v>
+        <v>26.70719693804579</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>15.36498462407318</v>
+        <v>26.70719690308123</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.47299157054142</v>
+        <v>26.70719692550901</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.6343776950796</v>
+        <v>26.70719693274566</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.37262197477971</v>
+        <v>26.70719690698734</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.75521047972851</v>
+        <v>26.70719693178218</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.35628340312014</v>
+        <v>26.70719693978259</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.20337466103501</v>
+        <v>26.70719691614205</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.90308394183474</v>
+        <v>26.70719693784225</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.92679662163495</v>
+        <v>26.70719694484412</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.66373408860932</v>
+        <v>26.70719693506893</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>39.75029282138908</v>
+        <v>26.70719695923479</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>44.03483064114402</v>
+        <v>26.70719696711732</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.2749772451333</v>
+        <v>26.70719693007546</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>39.7318133610865</v>
+        <v>26.70719696420543</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.07364202313239</v>
+        <v>26.70719697521795</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.69976275777998</v>
+        <v>26.70719694822001</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.93473432343636</v>
+        <v>26.70719696993503</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>39.20621739573347</v>
+        <v>26.70719697697885</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.33203213292622</v>
+        <v>26.70719695311483</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.8550127871958</v>
+        <v>26.70719697712169</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>38.57777977252386</v>
+        <v>26.70719698490892</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.48018518372255</v>
+        <v>26.70719696268708</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>39.3029659146105</v>
+        <v>26.70719698369764</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>43.43303060835107</v>
+        <v>26.70719699051294</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.43194652604599</v>
+        <v>26.70719698017928</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>48.71747000740078</v>
+        <v>26.70719700357609</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>53.19483937261708</v>
+        <v>26.70719701116627</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.05679405465681</v>
+        <v>26.70719697375433</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>48.70649553173502</v>
+        <v>26.70719700679964</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>55.21619532338403</v>
+        <v>26.70719701751872</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>11.90998403536327</v>
+        <v>26.70719685835578</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.61809833058746</v>
+        <v>26.70719687855697</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.07200892418432</v>
+        <v>26.70719688502751</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.377258785204257</v>
+        <v>26.70719686048833</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.21231128456211</v>
+        <v>26.70719688282158</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.03143300049362</v>
+        <v>26.70719688997503</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.21805427161884</v>
+        <v>26.70719686804016</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.56461543276223</v>
+        <v>26.707196887586</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.90445370826854</v>
+        <v>26.70719689384663</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.25123208236622</v>
+        <v>26.70719688562562</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.80122757809436</v>
+        <v>26.70719690727373</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.3043412236126</v>
+        <v>26.70719691429629</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.24792734587728</v>
+        <v>26.7071968824183</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.57133747947482</v>
+        <v>26.70719691315989</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.83528397863611</v>
+        <v>26.70719692300658</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.3264657408846</v>
+        <v>26.70719688982805</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.11534154641553</v>
+        <v>26.70719691143141</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.86155646297061</v>
+        <v>26.70719691826933</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>11.22884772874558</v>
+        <v>26.70719689267811</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.2587850641279</v>
+        <v>26.70719691656152</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.40089084965731</v>
+        <v>26.70719692412112</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.75740042014905</v>
+        <v>26.70719690133493</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.14895785956374</v>
+        <v>26.70719692223745</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.7712054672145</v>
+        <v>26.70719692885354</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.68762809503704</v>
+        <v>26.7071969194004</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.43599659273647</v>
+        <v>26.70719694259654</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.28011810529789</v>
+        <v>26.70719695002383</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.3985474825303</v>
+        <v>26.70719691482989</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.36864593472541</v>
+        <v>26.70719694770527</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.07799818060659</v>
+        <v>26.70719695811102</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.90295184565398</v>
+        <v>26.70719693480394</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.81449994537218</v>
+        <v>26.70719695572814</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.66909250321198</v>
+        <v>26.70719696237748</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>19.46830398072319</v>
+        <v>26.70719693873864</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.63389846247941</v>
+        <v>26.7071969618712</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.89580216439832</v>
+        <v>26.70719696922232</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.32983802250531</v>
+        <v>26.70719694783752</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.84030388485581</v>
+        <v>26.70719696808291</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>41.56725222283603</v>
+        <v>26.70719697451653</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>34.72793311736603</v>
+        <v>26.70719696456773</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.66203600260668</v>
+        <v>26.70719698702496</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.68761950016935</v>
+        <v>26.7071969941739</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.42491630435623</v>
+        <v>26.70719695859158</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>46.58140392094111</v>
+        <v>26.70719699043343</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>52.45601298923833</v>
+        <v>26.7071970005522</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.44728619528762</v>
+        <v>26.70719687669637</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.49866018139278</v>
+        <v>26.7071968976298</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.31735036202171</v>
+        <v>26.70719690445073</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>15.41992291906276</v>
+        <v>26.70719688028631</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.63428082068774</v>
+        <v>26.70719690342909</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.85669891148275</v>
+        <v>26.70719691096991</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.61753506866563</v>
+        <v>26.70719688836602</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.29556035454704</v>
+        <v>26.70719690862035</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.98817330596368</v>
+        <v>26.70719691522</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.06308176539158</v>
+        <v>26.70719690661282</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.97678676617036</v>
+        <v>26.70719692911671</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.85918660397682</v>
+        <v>26.70719693653605</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.79331957757376</v>
+        <v>26.70719690280088</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.64027984378694</v>
+        <v>26.70719693465679</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.45995712739681</v>
+        <v>26.70719694503669</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.1373723800509</v>
+        <v>26.70719691010675</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>32.3142891264045</v>
+        <v>26.70719693250133</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.46196500108909</v>
+        <v>26.70719693969757</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>17.48651474848305</v>
+        <v>26.70719691440533</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.94526845251274</v>
+        <v>26.70719693916346</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.53120324335012</v>
+        <v>26.7071969471192</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.39228680613025</v>
+        <v>26.70719692362372</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.15861555034923</v>
+        <v>26.70719694529179</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>40.16908999328249</v>
+        <v>26.70719695225457</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.78381189501883</v>
+        <v>26.70719694233464</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.95005810214365</v>
+        <v>26.70719696646009</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.22311505820912</v>
+        <v>26.70719697429352</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.22201259915187</v>
+        <v>26.70719693707762</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>44.78386227708414</v>
+        <v>26.70719697115705</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>51.10481364647939</v>
+        <v>26.70719698210808</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.93050816043925</v>
+        <v>26.7071969542759</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.22465915679805</v>
+        <v>26.70719697595418</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.48152700597289</v>
+        <v>26.70719698296004</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>24.87618287783281</v>
+        <v>26.70719695951821</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>38.46457545082625</v>
+        <v>26.70719698348445</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.17120089070182</v>
+        <v>26.70719699122972</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.08744014542219</v>
+        <v>26.70719696913989</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.96743770014758</v>
+        <v>26.7071969901149</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.0833857434613</v>
+        <v>26.70719699689348</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>40.97618019932368</v>
+        <v>26.70719698643639</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>53.33196002819177</v>
+        <v>26.70719700978978</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.79603641485767</v>
+        <v>26.70719701733441</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>34.45041992428263</v>
+        <v>26.7071969797851</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>53.19030177237931</v>
+        <v>26.70719701277449</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>59.67774419957451</v>
+        <v>26.70719702343581</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.64411948531695</v>
+        <v>26.70719687440669</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.47860848120169</v>
+        <v>26.70719689472979</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.26616377176822</v>
+        <v>26.70719690139594</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.30641685223825</v>
+        <v>26.70719687769425</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.28104248123515</v>
+        <v>26.70719690016228</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.4690235459177</v>
+        <v>26.70719690753199</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.36010951182934</v>
+        <v>26.70719688548941</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.82851540339727</v>
+        <v>26.70719690515321</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.49101458280501</v>
+        <v>26.7071969116031</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.76519454400812</v>
+        <v>26.70719690336945</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.46134911837019</v>
+        <v>26.70719692523172</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.31113333951171</v>
+        <v>26.70719693249188</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.74437173836035</v>
+        <v>26.70719689985145</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.26075396524669</v>
+        <v>26.70719693077858</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.03296974903938</v>
+        <v>26.70719694092294</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.34059291124839</v>
+        <v>26.70719690709678</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.28953378737169</v>
+        <v>26.70719692884179</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.40819036647335</v>
+        <v>26.70719693587626</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.3842975957639</v>
+        <v>26.70719691107155</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.59105443868448</v>
+        <v>26.70719693511157</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.14489401562035</v>
+        <v>26.70719694288847</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.13806529139536</v>
+        <v>26.70719691997289</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.68404932239432</v>
+        <v>26.70719694101247</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.6664596357792</v>
+        <v>26.70719694781873</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.475430314087</v>
+        <v>26.70719693829233</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>40.41243824302219</v>
+        <v>26.70719696173365</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.65563473511317</v>
+        <v>26.70719696940029</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.16177412283594</v>
+        <v>26.70719693335689</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>40.37614162564216</v>
+        <v>26.70719696644784</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>46.6528568780089</v>
+        <v>26.7071969771527</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>23.45870095684432</v>
+        <v>26.70719695051248</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.5314949360418</v>
+        <v>26.70719697156456</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.76067647532942</v>
+        <v>26.70719697841373</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.10922952377402</v>
+        <v>26.7071969554156</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.45293846617754</v>
+        <v>26.70719697868955</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>39.12894440175244</v>
+        <v>26.70719698626159</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.17298416108476</v>
+        <v>26.70719696471586</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.83902832628934</v>
+        <v>26.70719698508498</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.92820400771519</v>
+        <v>26.70719699171196</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.99620409721517</v>
+        <v>26.70719698164048</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>49.1295164984597</v>
+        <v>26.70719700433598</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.56557536397995</v>
+        <v>26.70719701171959</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.70102316505693</v>
+        <v>26.70719697532605</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>49.10351935349416</v>
+        <v>26.70719700736251</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>55.54875618982391</v>
+        <v>26.70719701778538</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.02452060835772</v>
+        <v>26.70719686218983</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.20986188148362</v>
+        <v>26.70719688330997</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.90544990369696</v>
+        <v>26.70719689011631</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.52038943759975</v>
+        <v>26.70719686481411</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.88288154982121</v>
+        <v>26.7071968881633</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.96921583805143</v>
+        <v>26.707196895688</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.67296140080533</v>
+        <v>26.70719687280057</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.48058757196421</v>
+        <v>26.70719689323554</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.05413218643226</v>
+        <v>26.70719689982108</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.07137726658004</v>
+        <v>26.70719689118141</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.10372049075106</v>
+        <v>26.70719691383619</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.85714830025545</v>
+        <v>26.70719692123156</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>17.7795375809408</v>
+        <v>26.70719688766093</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.83050320651307</v>
+        <v>26.70719691980096</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.46272100668349</v>
+        <v>26.70719693015866</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.57300593051322</v>
+        <v>26.70719689532074</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.8889726228017</v>
+        <v>26.70719691790839</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.8996062132526</v>
+        <v>26.70719692509745</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.46697468586229</v>
+        <v>26.70719689868639</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.07947976058913</v>
+        <v>26.70719692365798</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.51392696085697</v>
+        <v>26.70719693160579</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.33467318423228</v>
+        <v>26.70719690782447</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.23551145870222</v>
+        <v>26.70719692967936</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.1134416744441</v>
+        <v>26.7071969366352</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.67628046302261</v>
+        <v>26.70719692669454</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>39.96385869397762</v>
+        <v>26.70719695097291</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>44.08706818886169</v>
+        <v>26.70719695879042</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.08805144298201</v>
+        <v>26.70719692173843</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.86166728105336</v>
+        <v>26.70719695611169</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>45.97393284639046</v>
+        <v>26.7071969670518</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>23.0837096100422</v>
+        <v>26.70719694145051</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.5223701621608</v>
+        <v>26.7071969633236</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.64767274436606</v>
+        <v>26.70719697031842</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>20.64202967803693</v>
+        <v>26.70719694589154</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.39021302825226</v>
+        <v>26.70719697007314</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.95141081120003</v>
+        <v>26.70719697780621</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.84169924290813</v>
+        <v>26.70719695546942</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>39.86148253029526</v>
+        <v>26.70719697663292</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>43.85018900376863</v>
+        <v>26.70719698340082</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.6794826641719</v>
+        <v>26.70719697293283</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>49.15811989109594</v>
+        <v>26.7071969964373</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>53.47464215369871</v>
+        <v>26.70719700396461</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.09842614753396</v>
+        <v>26.70719696653038</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>49.05841851838053</v>
+        <v>26.70719699981623</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>55.34553045010249</v>
+        <v>26.70719701046075</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>11.72555997604826</v>
+        <v>26.70719686849582</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.28267108578427</v>
+        <v>26.70719688862868</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.92689675404498</v>
+        <v>26.70719689520753</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>9.335446970242582</v>
+        <v>26.70719687143043</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.00352190213646</v>
+        <v>26.70719689368815</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.03302849331795</v>
+        <v>26.70719690096134</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.19367195391635</v>
+        <v>26.70719687909208</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.39411023325626</v>
+        <v>26.70719689857181</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.91800257703636</v>
+        <v>26.70719690493723</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.40029274793149</v>
+        <v>26.70719689687549</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.8172237844996</v>
+        <v>26.70719691851988</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.50967975174294</v>
+        <v>26.70719692568731</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.56919451230603</v>
+        <v>26.70719689357468</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>32.66269482440423</v>
+        <v>26.7071969242123</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.21649930879876</v>
+        <v>26.70719693422381</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.23997119535418</v>
+        <v>26.70719690066444</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.88258407396783</v>
+        <v>26.70719692220801</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.84988323924091</v>
+        <v>26.70719692915347</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>11.25592776096303</v>
+        <v>26.70719690428461</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.12412822343868</v>
+        <v>26.70719692810192</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.51062273554438</v>
+        <v>26.70719693578041</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.79407471485863</v>
+        <v>26.70719691304281</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.04409929582644</v>
+        <v>26.70719693388747</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.88014673867883</v>
+        <v>26.70719694060761</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.91140044703927</v>
+        <v>26.70719693126815</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>37.53484333420631</v>
+        <v>26.70719695447739</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.61002349297672</v>
+        <v>26.70719696204792</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.79675660794836</v>
+        <v>26.70719692656995</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>37.54413792417997</v>
+        <v>26.70719695935434</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>43.59020814917132</v>
+        <v>26.70719696992375</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.42540696510822</v>
+        <v>26.70719694434747</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.19151790788005</v>
+        <v>26.70719696520825</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.26873311704928</v>
+        <v>26.70719697196827</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.047507010921</v>
+        <v>26.70719694892557</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.05226742565344</v>
+        <v>26.70719697198804</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.5602554762913</v>
+        <v>26.70719697946152</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.89159987488017</v>
+        <v>26.707196958089</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.26133084701</v>
+        <v>26.70719697827304</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.20356043646181</v>
+        <v>26.70719698481375</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.47593790371144</v>
+        <v>26.70719697492705</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>46.29209209993184</v>
+        <v>26.70719699739988</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>50.55692998235035</v>
+        <v>26.70719700468841</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.36887840242063</v>
+        <v>26.7071969688405</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>46.30387564053149</v>
+        <v>26.70719700058586</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>52.51753327400245</v>
+        <v>26.70719701087306</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>13.19638841790234</v>
+        <v>26.70719687417392</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>23.96235906976014</v>
+        <v>26.70719689438746</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.73941363548046</v>
+        <v>26.70719690102575</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>10.84667074260833</v>
+        <v>26.7071968774417</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.74557086713529</v>
+        <v>26.70719689978861</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.92192981718834</v>
+        <v>26.70719690712751</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.86792762993948</v>
+        <v>26.70719688519278</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.27012529930007</v>
+        <v>26.70719690475057</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.92246470136981</v>
+        <v>26.7071969111735</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.26002743795926</v>
+        <v>26.70719690301301</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.88589988210369</v>
+        <v>26.70719692476039</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.72484651679734</v>
+        <v>26.70719693199089</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.29774130004498</v>
+        <v>26.70719689954311</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.70968761074376</v>
+        <v>26.7071969303035</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>40.46588000994026</v>
+        <v>26.70719694040545</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.79770107213692</v>
+        <v>26.70719690665033</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.67186607965627</v>
+        <v>26.7071969282784</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.78030710117344</v>
+        <v>26.70719693528395</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>12.82933814971256</v>
+        <v>26.70719691059841</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.953451286065</v>
+        <v>26.70719693450915</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.49598467593208</v>
+        <v>26.70719694225406</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.54554985843537</v>
+        <v>26.70719691944868</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.01927530648603</v>
+        <v>26.70719694037511</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.99180263511546</v>
+        <v>26.70719694715339</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.86701184921578</v>
+        <v>26.7071969377047</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.72647625190025</v>
+        <v>26.70719696102308</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.95910541507907</v>
+        <v>26.7071969686588</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.6157398717605</v>
+        <v>26.70719693282525</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>39.71613650485101</v>
+        <v>26.70719696573824</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.97726295155397</v>
+        <v>26.70719697639908</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.90746618843251</v>
+        <v>26.70719694986509</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.90557343869054</v>
+        <v>26.70719697080398</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.12379183836044</v>
+        <v>26.70719697762459</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>20.54359056501114</v>
+        <v>26.70719695473621</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.80475300437249</v>
+        <v>26.70719697788502</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.46862685949502</v>
+        <v>26.70719698542549</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.56805545153679</v>
+        <v>26.7071969639827</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>39.16192443392281</v>
+        <v>26.70719698424231</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>43.24049547240089</v>
+        <v>26.70719699084164</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.37200360533564</v>
+        <v>26.70719698084757</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>48.42725855003792</v>
+        <v>26.70719700342387</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.85193264393562</v>
+        <v>26.70719701077724</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.13773032282526</v>
+        <v>26.70719697459377</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>48.42639441183729</v>
+        <v>26.70719700645798</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.85490222884997</v>
+        <v>26.70719701683739</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>14.62226189008226</v>
+        <v>26.70719687034515</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.59538535907952</v>
+        <v>26.70719689125138</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.35446820686241</v>
+        <v>26.70719689804825</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.44906734539127</v>
+        <v>26.70719687364859</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>24.57692631789243</v>
+        <v>26.70719689676131</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.73341855094526</v>
+        <v>26.70719690427553</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>18.57586380767415</v>
+        <v>26.70719688162799</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.17825686853761</v>
+        <v>26.70719690185601</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.81320933636919</v>
+        <v>26.70719690843238</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.0201866467862</v>
+        <v>26.70719689995276</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.8368911581076</v>
+        <v>26.7071969224176</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>40.64687225875304</v>
+        <v>26.70719692980257</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>19.85358501857356</v>
+        <v>26.7071968963493</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.58127379980326</v>
+        <v>26.70719692816382</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>42.3100758698141</v>
+        <v>26.70719693850711</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>17.27518308136399</v>
+        <v>26.70719690366249</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.37128030975766</v>
+        <v>26.70719692603112</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.45450042388898</v>
+        <v>26.70719693320479</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>14.49395791982851</v>
+        <v>26.70719690767915</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>27.86337074833264</v>
+        <v>26.7071969324086</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>32.37802305265522</v>
+        <v>26.7071969403394</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>21.33028879703711</v>
+        <v>26.70719691680012</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.01849729891637</v>
+        <v>26.70719693844309</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.9666248000956</v>
+        <v>26.70719694538404</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.72240556346143</v>
+        <v>26.70719693559355</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.78602160289452</v>
+        <v>26.70719695967822</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>45.97954464810925</v>
+        <v>26.70719696747799</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>23.26408064040045</v>
+        <v>26.70719693054733</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>41.70274936494874</v>
+        <v>26.70719696458728</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>47.92544697260708</v>
+        <v>26.70719697550398</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.57598768428335</v>
+        <v>26.70719694870369</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.79884080426886</v>
+        <v>26.70719697036187</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.98895701730895</v>
+        <v>26.70719697734011</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>22.41335018981048</v>
+        <v>26.70719695371187</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.92292977573462</v>
+        <v>26.70719697765589</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>40.55573940006877</v>
+        <v>26.70719698537062</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.57174580092175</v>
+        <v>26.70719696325521</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>41.38282430766345</v>
+        <v>26.70719698421078</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.43421187393243</v>
+        <v>26.70719699096263</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>38.45261604688687</v>
+        <v>26.70719698063351</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>50.71280529579825</v>
+        <v>26.7071970039485</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>55.09475421217468</v>
+        <v>26.70719701145635</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.00440966108116</v>
+        <v>26.70719697416578</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>50.6356381831027</v>
+        <v>26.70719700712459</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>57.02132991439227</v>
+        <v>26.70719701774387</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>13.86351644842944</v>
+        <v>26.70719686555374</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.04297197910734</v>
+        <v>26.70719688668435</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.77678693266959</v>
+        <v>26.70719689350408</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.47671314267753</v>
+        <v>26.70719686845271</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.83268766389094</v>
+        <v>26.70719689181347</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.96127781470232</v>
+        <v>26.70719689935297</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>17.65067076393498</v>
+        <v>26.7071968764785</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.45257818293932</v>
+        <v>26.7071968969236</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>32.06309094134534</v>
+        <v>26.70719690352209</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.08080305781545</v>
+        <v>26.70719689487306</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.10908657324924</v>
+        <v>26.70719691754955</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>39.90309419148096</v>
+        <v>26.70719692495978</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>18.77894291121535</v>
+        <v>26.70719689126592</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.8209796663069</v>
+        <v>26.70719692342188</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>41.51140977738338</v>
+        <v>26.70719693379996</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>16.35296810361577</v>
+        <v>26.70719689874392</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.66263818984055</v>
+        <v>26.70719692134318</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.71597305578253</v>
+        <v>26.70719692854456</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>13.35580493186326</v>
+        <v>26.70719690237648</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.96133693257238</v>
+        <v>26.70719692736089</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.44298525956164</v>
+        <v>26.70719693532232</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>20.24268906468642</v>
+        <v>26.70719691155198</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>32.13741199103001</v>
+        <v>26.70719693341809</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.05663601793853</v>
+        <v>26.70719694038585</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.61993956696463</v>
+        <v>26.70719693043258</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>40.90328392314353</v>
+        <v>26.70719695473541</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>45.07341395362909</v>
+        <v>26.70719696256653</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>22.0259343373084</v>
+        <v>26.70719692538767</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>40.78998715566253</v>
+        <v>26.70719695977857</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>46.96727939686386</v>
+        <v>26.70719697073744</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>23.64099070128062</v>
+        <v>26.7071969444164</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.06965567549036</v>
+        <v>26.70719696629727</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>40.23747564741505</v>
+        <v>26.70719697330574</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>21.28780773951921</v>
+        <v>26.70719694908827</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>35.02492701627775</v>
+        <v>26.70719697327849</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.63312229762453</v>
+        <v>26.70719698102664</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.49954832083123</v>
+        <v>26.70719695869317</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>40.50964077713228</v>
+        <v>26.70719697986421</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>44.5394623368135</v>
+        <v>26.70719698664532</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>37.37425676937439</v>
+        <v>26.7071969761629</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>49.84571811251129</v>
+        <v>26.7071969996885</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>54.21017363102135</v>
+        <v>26.70719700723034</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.79807477023932</v>
+        <v>26.70719696968443</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>49.74285844944301</v>
+        <v>26.70719700298212</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>56.09471542048678</v>
+        <v>26.70719701364742</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.547</v>
+        <v>19.204</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.143</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.688</v>
+        <v>17.715</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.034</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.077</v>
+        <v>16.125</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.70719687358217</v>
+        <v>9.8823211961304</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.70719689418802</v>
+        <v>33.94214953898837</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.70719690093914</v>
+        <v>39.17676531507052</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.70719687690074</v>
+        <v>13.86038179978777</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.70719689968136</v>
+        <v>30.37893020783831</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.707196907145</v>
+        <v>35.56684811069168</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.70719688481579</v>
+        <v>24.50071230572468</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.70719690475316</v>
+        <v>37.97861151556071</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.70719691128526</v>
+        <v>41.98899865791572</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.70719690293407</v>
+        <v>41.28364996394725</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.70719692509685</v>
+        <v>48.47300873516512</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.7071969324478</v>
+        <v>52.46071456369941</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.70719689935932</v>
+        <v>23.23974107722447</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.70719693071672</v>
+        <v>42.89551269185617</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.70719694099038</v>
+        <v>48.95373282642724</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.70719690658827</v>
+        <v>14.1313813629925</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.70719692863521</v>
+        <v>41.663204434946</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.70719693575946</v>
+        <v>48.42449457221385</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.70719691060247</v>
+        <v>14.43524833962472</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.70719693497628</v>
+        <v>34.58710144166928</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.70719694285243</v>
+        <v>41.08464715526446</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.70719691963827</v>
+        <v>27.97959319131062</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.70719694096998</v>
+        <v>44.32429313311488</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.70719694786311</v>
+        <v>49.50878956864553</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.70719693820512</v>
+        <v>48.51963074389556</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.70719696196789</v>
+        <v>58.22569860467023</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.70719696973051</v>
+        <v>63.2522334846448</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.70719693319868</v>
+        <v>27.93817865851146</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.70719696674909</v>
+        <v>51.93796350077908</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.70719697759057</v>
+        <v>59.47779518389359</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.70719695054843</v>
+        <v>21.5330311145505</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.70719697189251</v>
+        <v>50.11769489416216</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.70719697882837</v>
+        <v>57.95247810417487</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.70719695550877</v>
+        <v>21.84809790126606</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.70719697910554</v>
+        <v>43.32798673318749</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.70719698677343</v>
+        <v>50.94277360678512</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.7071969649464</v>
+        <v>37.57024670357119</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.70719698559805</v>
+        <v>55.0431255089902</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.7071969923089</v>
+        <v>61.18886101348944</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.70719698210215</v>
+        <v>62.06357618838443</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.7071970051078</v>
+        <v>72.55788663539686</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.70719701258352</v>
+        <v>78.42433761955782</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.70719697570066</v>
+        <v>39.75862566345005</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.70719700818148</v>
+        <v>65.28525432524104</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.70719701873628</v>
+        <v>74.07216671226863</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.70719686303699</v>
+        <v>12.87740311993152</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.70719688393262</v>
+        <v>38.47074542631676</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.70719689060791</v>
+        <v>43.53904083640622</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.70719686570482</v>
+        <v>17.48812668198094</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.70719688880581</v>
+        <v>35.69775222730785</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.70719689618562</v>
+        <v>40.62935481769347</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.70719687358558</v>
+        <v>28.89753975359238</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.70719689380334</v>
+        <v>43.8557356167025</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.70719690026207</v>
+        <v>47.66363556961622</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.7071968916561</v>
+        <v>46.37244606295499</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26.70719691405297</v>
+        <v>54.37011132484926</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26.70719692129004</v>
+        <v>57.8382479147475</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.70719688810819</v>
+        <v>26.60904316932734</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.70719691990658</v>
+        <v>48.23083886553658</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.70719693006484</v>
+        <v>53.98714942987195</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.70719689579335</v>
+        <v>14.51814134166336</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.7071969181417</v>
+        <v>43.58013251914746</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.7071969251917</v>
+        <v>50.04108603266351</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.70719689920162</v>
+        <v>15.32775237978336</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.70719692390864</v>
+        <v>37.15033806143593</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.70719693170271</v>
+        <v>43.25136969623024</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.70719690822873</v>
+        <v>29.71564070726443</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.70719692985207</v>
+        <v>47.52266241882776</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.70719693667336</v>
+        <v>52.38391749600471</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.70719692679883</v>
+        <v>51.14870972003928</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.70719695079973</v>
+        <v>61.65093263465708</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.70719695844917</v>
+        <v>66.03252126251677</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.7071969218387</v>
+        <v>28.9943530871804</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.70719695584778</v>
+        <v>54.93906847969566</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.70719696657628</v>
+        <v>62.0118655475159</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.70719694161444</v>
+        <v>22.92251376039705</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.70719696325706</v>
+        <v>53.06985743671744</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.70719697011229</v>
+        <v>60.61990115033664</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.70719694610192</v>
+        <v>23.74987689068557</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.70719697002873</v>
+        <v>46.93570999239329</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.70719697760747</v>
+        <v>54.19076612773209</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.70719695557701</v>
+        <v>40.34501194591132</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.70719697651751</v>
+        <v>59.31165806163121</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.70719698315035</v>
+        <v>65.15820318801671</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.70719697277699</v>
+        <v>65.65197094384168</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.70719699600986</v>
+        <v>76.97300019770105</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.7071970033728</v>
+        <v>82.19238018282647</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.70719696638954</v>
+        <v>41.76942194273169</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.70719699932466</v>
+        <v>69.27662608792534</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.70719700975675</v>
+        <v>77.63235993270763</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.70719686303699</v>
+        <v>11.51124330099657</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.70719688393262</v>
+        <v>36.99713736098858</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.70719689060791</v>
+        <v>41.98766948858577</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.70719686570482</v>
+        <v>15.96954451836071</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.70719688880581</v>
+        <v>34.05867680859396</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.70719689618562</v>
+        <v>38.91276156060783</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.70719687358558</v>
+        <v>27.34564746099912</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.70719689380334</v>
+        <v>42.1989557889459</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.70719690026207</v>
+        <v>45.93552477795001</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.7071968916561</v>
+        <v>44.92711471313915</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.70719691405297</v>
+        <v>52.8514188450681</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.70719692129004</v>
+        <v>56.28131472787003</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.70719688810819</v>
+        <v>25.30571136752361</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.70719691990658</v>
+        <v>46.7936031843646</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.70719693006484</v>
+        <v>52.45608102171174</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.70719689579335</v>
+        <v>13.99431328434634</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.7071969181417</v>
+        <v>42.96985335827819</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.7071969251917</v>
+        <v>49.34770485397049</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.70719689920162</v>
+        <v>14.69609941670638</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.70719692390864</v>
+        <v>36.41946341881685</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.70719693170271</v>
+        <v>42.43596785989421</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.70719690822873</v>
+        <v>29.06550669801432</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.70719692985207</v>
+        <v>46.78527310036336</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.70719693667336</v>
+        <v>51.57047658004724</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.70719692679883</v>
+        <v>50.55830732202571</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.70719695079973</v>
+        <v>60.98773496538291</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.70719695844917</v>
+        <v>65.32524469160583</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.7071969218387</v>
+        <v>28.5105667747594</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.70719695584778</v>
+        <v>54.34447317509463</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.70719696657628</v>
+        <v>61.31490081989557</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.70719694161444</v>
+        <v>22.52350491906917</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.70719696325706</v>
+        <v>52.5935780145541</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>26.70719697011229</v>
+        <v>60.06704336146367</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.70719694610192</v>
+        <v>23.23134288143803</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.70719697002873</v>
+        <v>46.32605244056725</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.70719697760747</v>
+        <v>53.50351485793958</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.70719695557701</v>
+        <v>39.81241062851241</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.70719697651751</v>
+        <v>58.69958786673135</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.70719698315035</v>
+        <v>64.47580327452098</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.70719697277699</v>
+        <v>65.16749779018903</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.70719699600986</v>
+        <v>76.42158185922158</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.7071970033728</v>
+        <v>81.59975579668277</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.70719696638954</v>
+        <v>41.37588636750962</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.70719699932466</v>
+        <v>68.78171597325111</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.70719700975675</v>
+        <v>77.04282938910607</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>26.70719686787614</v>
+        <v>4.745234338813383</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.70719688858945</v>
+        <v>28.38820821475247</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.70719689537295</v>
+        <v>33.50519946064011</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26.70719687087177</v>
+        <v>8.335130016199376</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.70719689377121</v>
+        <v>24.42440908802851</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.70719690127064</v>
+        <v>29.4565699235124</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.70719687874863</v>
+        <v>18.6330843497684</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.70719689878998</v>
+        <v>31.74866266025918</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.70719690535341</v>
+        <v>35.63032745845678</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.70719689704483</v>
+        <v>34.97322292660439</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.70719691932007</v>
+        <v>41.97888480353991</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.70719692670803</v>
+        <v>45.91918539975117</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.70719689364083</v>
+        <v>17.2837936571869</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.70719692516177</v>
+        <v>36.46052076701286</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.7071969354847</v>
+        <v>42.34861615770414</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.70719690117224</v>
+        <v>8.868819979713077</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.70719692333659</v>
+        <v>35.95401133287452</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.70719693049692</v>
+        <v>42.57987599531032</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.70719690487233</v>
+        <v>8.808907842497671</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.70719692937594</v>
+        <v>28.49573057316907</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.70719693729199</v>
+        <v>34.82642253865652</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.70719691388054</v>
+        <v>21.98999108214164</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.70719693532585</v>
+        <v>37.94233155500586</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.7071969422539</v>
+        <v>42.9864017617774</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.70719693263025</v>
+        <v>42.08150871067416</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.70719695651543</v>
+        <v>51.59094519567137</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.70719696431915</v>
+        <v>56.5682307112363</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.70719692778308</v>
+        <v>21.87546392371708</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.70719696151216</v>
+        <v>45.35556627417354</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.70719697240856</v>
+        <v>52.71130589651723</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.70719694617562</v>
+        <v>17.08681408055952</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>26.70719696763758</v>
+        <v>45.24981923584146</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.70719697460852</v>
+        <v>52.95440196038998</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.70719695086632</v>
+        <v>17.03660844169224</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.70719697459341</v>
+        <v>38.07507403458293</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.70719698230008</v>
+        <v>45.53205105917631</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.70719696029664</v>
+        <v>32.43195534173438</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.70719698106235</v>
+        <v>49.53265019576438</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.70719698780714</v>
+        <v>55.54438458456883</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.70719697762302</v>
+        <v>56.46055869616139</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.70719700075116</v>
+        <v>66.77148899117324</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.70719700826618</v>
+        <v>72.57861893210543</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.7071969713469</v>
+        <v>34.49794059628768</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.7071970040071</v>
+        <v>59.5312294675564</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.70719701461529</v>
+        <v>68.14233716906848</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.70719687494033</v>
+        <v>13.76820564658258</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.70719689553032</v>
+        <v>38.23971038662005</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.70719690225279</v>
+        <v>43.43402919532743</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.707196878273</v>
+        <v>17.83759653270219</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.70719690103609</v>
+        <v>34.80216453881347</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.70719690846806</v>
+        <v>39.9360764932601</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.7071968861845</v>
+        <v>28.76088108229982</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.70719690610653</v>
+        <v>42.63441404905054</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.70719691261091</v>
+        <v>46.60254519640417</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.70719690418349</v>
+        <v>45.66589155507365</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.70719692632279</v>
+        <v>53.06329302662267</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.70719693364074</v>
+        <v>57.02059748450463</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.70719690052705</v>
+        <v>27.17616017741712</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.70719693186032</v>
+        <v>47.33125948175827</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.70719694209038</v>
+        <v>53.32635566680115</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.70719690805533</v>
+        <v>19.32109168459945</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.70719693008493</v>
+        <v>47.27017003228194</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.70719693717824</v>
+        <v>53.93458398766674</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.70719691209402</v>
+        <v>19.76929868682318</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.70719693644866</v>
+        <v>40.36338181349753</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.7071969442906</v>
+        <v>46.75254925626472</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.70719692112865</v>
+        <v>33.65390209095847</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.70719694244358</v>
+        <v>50.39508922453972</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.70719694930677</v>
+        <v>55.48589239391713</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.70719693958047</v>
+        <v>54.37421723362399</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.70719696331788</v>
+        <v>64.2828905443493</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.70719697104546</v>
+        <v>69.27235533627194</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.70719693449276</v>
+        <v>33.37319745993103</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.70719696801678</v>
+        <v>57.87206902698763</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.70719695183306</v>
+        <v>26.11227172711857</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.70719697315979</v>
+        <v>55.07032586293474</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.70719698006808</v>
+        <v>62.82509532055977</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.70719695681328</v>
+        <v>26.56034869156009</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.70719698039087</v>
+        <v>48.43838657182933</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.70719698802827</v>
+        <v>55.9648709149665</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.70719696625024</v>
+        <v>42.58714788982076</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.70719698688511</v>
+        <v>60.4173619196619</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.70719699356929</v>
+        <v>66.48461564189401</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.70719698330323</v>
+        <v>67.27882647201639</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.70719700628462</v>
+        <v>77.96275064957912</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.7071970137293</v>
+        <v>83.78448580441948</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.70719697683154</v>
+        <v>44.59256507650073</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.70719700928596</v>
+        <v>70.56924165914447</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.7071970197988</v>
+        <v>79.24936309826435</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.70719686955862</v>
+        <v>14.03064630650526</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.70719689033373</v>
+        <v>38.92893667054776</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.7071968969857</v>
+        <v>43.81912125198352</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.70719687263107</v>
+        <v>18.53991721152703</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.70719689559881</v>
+        <v>36.21679209689026</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.70719690295284</v>
+        <v>41.00179210494271</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.70719688052632</v>
+        <v>29.58032718712889</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.70719690062745</v>
+        <v>44.11871303210106</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.70719690706362</v>
+        <v>47.81300332554605</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.70719689846004</v>
+        <v>46.40368268194494</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.7071969207493</v>
+        <v>54.16092448624569</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.70719692796264</v>
+        <v>57.59950925293933</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.7071968947591</v>
+        <v>27.19652881238594</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.70719692637407</v>
+        <v>48.15732382203036</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.70719693649685</v>
+        <v>53.74191562697819</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.70719690274643</v>
+        <v>19.94771146288543</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.7071969249741</v>
+        <v>48.28686931473991</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.70719693199474</v>
+        <v>54.48076480742742</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.70719690656037</v>
+        <v>20.91069881796692</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.70719693113397</v>
+        <v>42.16969580888073</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.70719693889559</v>
+        <v>48.04009614257357</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.70719691560194</v>
+        <v>34.98671581112507</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.70719693710852</v>
+        <v>52.35690670077619</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.7071969439014</v>
+        <v>57.02816852982892</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.70719693402736</v>
+        <v>55.69644624544411</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.7071969579219</v>
+        <v>65.90703193069271</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.70719696554163</v>
+        <v>70.25367213954543</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.70719692890384</v>
+        <v>34.11310621231915</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.70719696272928</v>
+        <v>59.35946677496386</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.70719697341309</v>
+        <v>66.1663978341826</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.70719694765604</v>
+        <v>27.72916317054861</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.70719696917915</v>
+        <v>57.05602854558286</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.70719697601096</v>
+        <v>64.31992492609764</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.70719695249181</v>
+        <v>28.68920866644821</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.7071969762865</v>
+        <v>51.20166486849348</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.70719698383934</v>
+        <v>58.20557535244811</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>26.70719696196707</v>
+        <v>44.89577470678179</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.70719698279194</v>
+        <v>63.32997084325856</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.70719698940211</v>
+        <v>68.9686221074718</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.70719697902658</v>
+        <v>69.39613600223973</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.70719700215723</v>
+        <v>80.3679120157754</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.70719700949611</v>
+        <v>85.51093950719535</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.70719697250496</v>
+        <v>46.15585820455416</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.70719700525822</v>
+        <v>72.84487345367729</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.70719701565467</v>
+        <v>80.90926326113271</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.70719686647151</v>
+        <v>4.994546686419458</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>26.70719688728265</v>
+        <v>28.82435552680982</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.70719689399974</v>
+        <v>33.72326479244484</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.70719686951189</v>
+        <v>9.171994751240884</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.70719689251947</v>
+        <v>25.69372313026486</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.70719689994549</v>
+        <v>30.51276673891937</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.7071968774152</v>
+        <v>19.56535176888373</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.7071968975512</v>
+        <v>33.08336443140607</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.70719690405038</v>
+        <v>36.79603435177283</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.70719689562005</v>
+        <v>36.13820455596159</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.70719691796269</v>
+        <v>43.35251547178561</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.70719692525105</v>
+        <v>46.8225484071577</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.70719689210483</v>
+        <v>18.09789143534155</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.70719692377464</v>
+        <v>37.76414455645239</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.70719693399651</v>
+        <v>43.38964208814787</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.70719689941176</v>
+        <v>8.941583468611778</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.70719692167884</v>
+        <v>36.22407801064371</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.70719692876982</v>
+        <v>42.55848150953634</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.70719690317003</v>
+        <v>9.523354442588353</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.70719692778721</v>
+        <v>29.66053278037305</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.70719693562658</v>
+        <v>35.69014267426671</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.70719691221427</v>
+        <v>22.84481567628583</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.70719693375898</v>
+        <v>39.21321866613773</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.70719694061992</v>
+        <v>44.02288241993691</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.70719693090115</v>
+        <v>43.14422535679545</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.70719695485333</v>
+        <v>52.83027393881027</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.70719696255272</v>
+        <v>57.22396188336896</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.70719692596236</v>
+        <v>22.63146678710199</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.70719695984777</v>
+        <v>46.61137023028193</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.70719697063863</v>
+        <v>53.60543234633182</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.70719694473605</v>
+        <v>18.19490670278777</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.70719696629859</v>
+        <v>46.57730879510986</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.70719697319306</v>
+        <v>53.94905136355229</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.70719694952663</v>
+        <v>18.76975183374509</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.70719697336492</v>
+        <v>40.27187271077425</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.70719698098704</v>
+        <v>47.39567961363715</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.70719695900339</v>
+        <v>34.30952612618138</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.70719697986641</v>
+        <v>51.84148185127553</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.70719698653722</v>
+        <v>57.58871357023766</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.7071969762965</v>
+        <v>58.34014402860453</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.70719699948227</v>
+        <v>68.82111423682828</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.70719700689173</v>
+        <v>74.03203945910867</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.70719696993444</v>
+        <v>36.06653110655039</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.70719700274771</v>
+        <v>61.61364487613328</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.70719701323953</v>
+        <v>69.82737979229654</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.70719687136065</v>
+        <v>5.544831574142542</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.70719689230085</v>
+        <v>30.04151773345709</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.70719689911972</v>
+        <v>35.21821006454449</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.70719687457603</v>
+        <v>9.387501829955593</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.7071968977263</v>
+        <v>26.32033511828151</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.70719690526484</v>
+        <v>31.42308319378609</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.70719688258411</v>
+        <v>20.09142134158493</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.70719690284498</v>
+        <v>33.93278259247691</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.70719690944264</v>
+        <v>37.87031284221109</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.70719690089369</v>
+        <v>37.13238262384271</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.70719692340146</v>
+        <v>44.53618341971149</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.70719693082147</v>
+        <v>48.473957800957</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.70719689724639</v>
+        <v>18.7062303689645</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.70719692911261</v>
+        <v>38.84386050088779</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.70719693948936</v>
+        <v>44.80265449677701</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.7071969050065</v>
+        <v>10.02557450559292</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.70719692741153</v>
+        <v>38.00413493871113</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.70719693460757</v>
+        <v>44.66557024304619</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.70719690894475</v>
+        <v>10.17397741899608</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.70719693371444</v>
+        <v>30.74045620184261</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.70719694166996</v>
+        <v>37.11343489632532</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.70719691809792</v>
+        <v>23.836821858424</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.70719693977611</v>
+        <v>40.54608605439417</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.70719694673869</v>
+        <v>45.61996126197808</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.70719693687385</v>
+        <v>44.72529268174614</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.70719696100644</v>
+        <v>54.6550756194506</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.70719696884297</v>
+        <v>59.62916865462532</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.70719693177372</v>
+        <v>23.79015010680507</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.70719696586907</v>
+        <v>48.27745318558071</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.70719697681979</v>
+        <v>55.6702926768254</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.70719694990587</v>
+        <v>17.64949105133076</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.70719697159813</v>
+        <v>46.67121372940404</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.70719697860576</v>
+        <v>54.4415685595736</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.70719695482678</v>
+        <v>17.81526549070515</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26.70719697880846</v>
+        <v>39.70196026036672</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.70719698655569</v>
+        <v>47.23309394662781</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.70719696439816</v>
+        <v>33.67399173662996</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.70719698538669</v>
+        <v>51.50398691033976</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.70719699216699</v>
+        <v>57.57192147915781</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.70719698175549</v>
+        <v>58.53732804146024</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.70719700512048</v>
+        <v>69.26377583404992</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.7071970126699</v>
+        <v>75.08220832667965</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.70719697523842</v>
+        <v>35.87326040713864</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.70719700824908</v>
+        <v>61.87919644207602</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.7071970189131</v>
+        <v>70.56162588865071</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.70719687577878</v>
+        <v>20.71842236803754</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.70719689639504</v>
+        <v>46.34759862025921</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.70719690299183</v>
+        <v>51.44985134568722</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.70719687928213</v>
+        <v>26.08081420233989</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.70719690207427</v>
+        <v>44.40967305026669</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.70719690936729</v>
+        <v>49.43872845712086</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.70719688720487</v>
+        <v>37.57811549907895</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.70719690715231</v>
+        <v>52.66409144998026</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.70719691353509</v>
+        <v>56.56020508700747</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.70719690493656</v>
+        <v>55.22086430962482</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.70719692705465</v>
+        <v>63.24819985915181</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.70719693420147</v>
+        <v>66.75748773340861</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.70719690107697</v>
+        <v>35.55857940335768</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.70719693245021</v>
+        <v>57.27203852154184</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.70719694248902</v>
+        <v>63.13899898844336</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.70719690823843</v>
+        <v>21.99002535829244</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.70719693029119</v>
+        <v>51.06075405819465</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.70719693725137</v>
+        <v>57.49270461581428</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.70719691245415</v>
+        <v>23.50206295981522</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.70719693683439</v>
+        <v>45.42666901814653</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.70719694452917</v>
+        <v>51.55350478108479</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.7071969215058</v>
+        <v>37.9209278855076</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.70719694284314</v>
+        <v>55.84376126404155</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.70719694957753</v>
+        <v>60.73522998383946</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.70719693972678</v>
+        <v>59.45801633429497</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.70719696343274</v>
+        <v>69.95214749313591</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.70719697097931</v>
+        <v>74.3657864300818</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.7071969344718</v>
+        <v>37.44205987403117</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.70719696803107</v>
+        <v>63.45628107121378</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.70719697862289</v>
+        <v>70.55958942713544</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.70719695199725</v>
+        <v>29.32926035761438</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.70719697334662</v>
+        <v>59.4009135116091</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>26.70719698011523</v>
+        <v>66.89764824968174</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.70719695718736</v>
+        <v>30.83568668143605</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.70719698078997</v>
+        <v>54.02977030981955</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.70719698827295</v>
+        <v>61.28274816472391</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.70719696665297</v>
+        <v>47.39510405965314</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.70719698730973</v>
+        <v>66.39567902315571</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.70719699385876</v>
+        <v>72.25030506695545</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.70719698352599</v>
+        <v>72.72472608492721</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.70719700646722</v>
+        <v>83.98554593776615</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.70719701373191</v>
+        <v>89.20431629114583</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.70719697690949</v>
+        <v>49.01449836608987</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.70719700939834</v>
+        <v>76.48964162902347</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.70719701969863</v>
+        <v>84.84279910423311</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.70719685535759</v>
+        <v>2.014936619237883</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.70719687542297</v>
+        <v>25.4169264640588</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.70719688188817</v>
+        <v>30.20912381912233</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.70719685731844</v>
+        <v>5.441382259578049</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.70719687950155</v>
+        <v>21.77763716446145</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.7071968866491</v>
+        <v>26.45367893720551</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.70719686479104</v>
+        <v>15.76059548227274</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.70719688420548</v>
+        <v>29.10940486025102</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.70719689046093</v>
+        <v>32.70593688663891</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.70719688242044</v>
+        <v>31.90416163092</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.70719690393541</v>
+        <v>39.05354256380398</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.70719691095791</v>
+        <v>42.41262497057825</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.7071968793953</v>
+        <v>13.89390787731128</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.70719690993022</v>
+        <v>33.35840054270106</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.70719691976878</v>
+        <v>38.80205727291585</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.70719688671799</v>
+        <v>5.300378876846057</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.70719690818031</v>
+        <v>32.03751622854413</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.70719691501384</v>
+        <v>38.27388454981475</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.70719688938859</v>
+        <v>5.23084322377515</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.70719691311608</v>
+        <v>25.04741947644387</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.70719692067082</v>
+        <v>30.95775695129128</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.70719689795879</v>
+        <v>18.41304532948888</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.70719691872485</v>
+        <v>34.50416342245925</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.70719692533669</v>
+        <v>39.21062835894361</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.70719691605735</v>
+        <v>38.20725143262607</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.7071969391155</v>
+        <v>47.76551561497389</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.70719694654363</v>
+        <v>52.02159132447126</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.70719691166978</v>
+        <v>17.81993906558145</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.70719694433053</v>
+        <v>41.44032013542981</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.7071969547296</v>
+        <v>48.27886853579182</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.70719693174751</v>
+        <v>14.05268103341084</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.70719695253688</v>
+        <v>41.89162690961432</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.70719695918208</v>
+        <v>49.15731628736187</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.70719693550824</v>
+        <v>14.00676277631804</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.70719695849175</v>
+        <v>35.19108663480634</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.7071969658383</v>
+        <v>42.18539159531557</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.70719694451785</v>
+        <v>29.32971955795516</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.70719696463278</v>
+        <v>46.58799390552448</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.70719697106241</v>
+        <v>52.22213973259635</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.70719696127131</v>
+        <v>52.83248492964899</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.70719698359746</v>
+        <v>63.20570283154073</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.70719699074708</v>
+        <v>68.29415567118855</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.70719695546935</v>
+        <v>30.7949303228407</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.70719698710602</v>
+        <v>55.97993809427086</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.70719699721851</v>
+        <v>64.03049417684264</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.70719685888213</v>
+        <v>9.492705866692917</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.70719687928514</v>
+        <v>34.09649394402892</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.70719688580434</v>
+        <v>38.85100848157447</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.70719686107088</v>
+        <v>13.29832046099213</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.70719688362725</v>
+        <v>30.68748956164656</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.7071968908345</v>
+        <v>35.27369153883581</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.70719686868834</v>
+        <v>24.26296732634745</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.70719688842944</v>
+        <v>38.53199782736525</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.70719689473716</v>
+        <v>42.05244815111863</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.70719688638847</v>
+        <v>40.93484321513311</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.7071969082549</v>
+        <v>48.56137433488733</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.70719691532781</v>
+        <v>51.87934321252364</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.70719688309553</v>
+        <v>21.82688797044779</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.70719691414424</v>
+        <v>42.4993344662257</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.70719692406499</v>
+        <v>47.85167635890789</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>26.70719689115404</v>
+        <v>15.04816351933766</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.70719691297826</v>
+        <v>43.08322714756824</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.70719691986583</v>
+        <v>49.19632576474632</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.70719689408351</v>
+        <v>15.37796068779017</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.70719691821109</v>
+        <v>36.32977857112013</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.70719692582558</v>
+        <v>42.06467127441228</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.70719690282618</v>
+        <v>29.36272548315982</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.70719692394239</v>
+        <v>46.44550555503982</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.70719693060652</v>
+        <v>50.99616354336029</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.70719692101374</v>
+        <v>49.88746304842931</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.70719694444898</v>
+        <v>59.97168688686335</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.70719695192783</v>
+        <v>64.18888938893156</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.70719691633159</v>
+        <v>28.38133720899483</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.70719694954306</v>
+        <v>53.31566115212368</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.70719696002437</v>
+        <v>59.96059496460288</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.70719693662062</v>
+        <v>23.60435481560573</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.70719695775948</v>
+        <v>52.71239649355314</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.70719696445948</v>
+        <v>59.90874889285217</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.70719694064217</v>
+        <v>23.93132738933016</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.70719696401206</v>
+        <v>46.22717664277361</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.70719697141919</v>
+        <v>53.11139448517875</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.7071969498368</v>
+        <v>40.07996015936995</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.7071969702899</v>
+        <v>58.30718828790546</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.70719697677254</v>
+        <v>63.8371122797281</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.70719696668115</v>
+        <v>64.408442835077</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.70719698937178</v>
+        <v>75.30431350468984</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.70719699657282</v>
+        <v>80.34496661143669</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.70719696058202</v>
+        <v>41.22135559768583</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.70719699275055</v>
+        <v>67.69559304108382</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.70719700294643</v>
+        <v>75.61807522460809</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.70719685594868</v>
+        <v>2.759862074057409</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.70719687611468</v>
+        <v>26.46593392427604</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.7071968825781</v>
+        <v>31.2134516937455</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.70719685804527</v>
+        <v>6.418638520124158</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.70719688033963</v>
+        <v>22.89879035779964</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.70719688748521</v>
+        <v>27.47523229019016</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.70719686554156</v>
+        <v>16.77571078550458</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.70719688505335</v>
+        <v>30.26157568783714</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.70719689130709</v>
+        <v>33.77829588183777</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.70719688321467</v>
+        <v>32.9841508731749</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.70719690483122</v>
+        <v>40.20566982576088</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.7071969118422</v>
+        <v>43.47984704261387</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.70719688014454</v>
+        <v>14.80756554004754</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.7071969108326</v>
+        <v>34.45619022009559</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.70719692066844</v>
+        <v>39.8094955066388</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.70719688750966</v>
+        <v>4.324765003241989</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.70719690908091</v>
+        <v>31.39461533535727</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.7071969159107</v>
+        <v>37.53632493412925</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.70719689031433</v>
+        <v>4.363619619325299</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.70719691416224</v>
+        <v>24.35024761881525</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.70719692171286</v>
+        <v>30.10950915261503</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.70719689891908</v>
+        <v>17.567156353656</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.70719691979053</v>
+        <v>33.81359987543021</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.70719692639875</v>
+        <v>38.3975164436896</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.70719691707312</v>
+        <v>37.53529905722904</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.70719694023996</v>
+        <v>47.18839337085931</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.70719694765346</v>
+        <v>51.3460138976955</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.70719691263729</v>
+        <v>16.99562868723275</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.7071969454638</v>
+        <v>40.83466696551108</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.70719695585719</v>
+        <v>47.52016256982193</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>26.70719693300232</v>
+        <v>14.44934013251263</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.70719695389869</v>
+        <v>42.66849101162521</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.70719696053612</v>
+        <v>49.85563812149202</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.70719693690798</v>
+        <v>14.49837506293034</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.70719696000979</v>
+        <v>35.9017076506752</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.70719696734773</v>
+        <v>42.77272506163089</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.70719694596847</v>
+        <v>29.93905908732005</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.70719696618694</v>
+        <v>47.39388356937786</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.70719697260904</v>
+        <v>52.9264678899081</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.70719696278152</v>
+        <v>53.61648235567896</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.70719698521155</v>
+        <v>64.09845185182765</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.70719699234338</v>
+        <v>69.06602817762793</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.70719695692085</v>
+        <v>31.30077884622075</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.70719698872036</v>
+        <v>56.76059549068819</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.707196998821</v>
+        <v>64.68273334713614</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.70719685098454</v>
+        <v>-3.967126832400858</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.7071968705746</v>
+        <v>18.64569301768902</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.70719687685775</v>
+        <v>23.12889114232657</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.70719685253684</v>
+        <v>-1.023473627907933</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.70719687419446</v>
+        <v>14.55629246737512</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.70719688114075</v>
+        <v>18.83691934633313</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.70719685972591</v>
+        <v>8.661632988373515</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.70719687868045</v>
+        <v>21.3902539945131</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.70719688475976</v>
+        <v>24.66560634363793</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.70719687698327</v>
+        <v>24.00694121517033</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.7071968979803</v>
+        <v>30.84008867884696</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.7071969048013</v>
+        <v>34.00982488382745</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.70719687422266</v>
+        <v>6.676091383889883</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.70719690403426</v>
+        <v>25.28605104880903</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.70719691359578</v>
+        <v>30.29937533892501</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.70719688192458</v>
+        <v>-0.6488552743665998</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.70719690288298</v>
+        <v>25.2347313749166</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.7071969095252</v>
+        <v>31.0866470997964</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.70719688418154</v>
+        <v>-1.10078819564292</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.70719690735192</v>
+        <v>17.88145377366483</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.70719691469517</v>
+        <v>23.33461075507651</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.70719689245362</v>
+        <v>11.40264317300757</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.7071969127321</v>
+        <v>26.81043580672904</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.70719691915884</v>
+        <v>31.13895645692585</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.70719691017763</v>
+        <v>30.39621588507477</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.70719693268358</v>
+        <v>39.59855092129452</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.70719693989955</v>
+        <v>43.64206176341364</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.70719690607963</v>
+        <v>10.73959366857875</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.70719693797352</v>
+        <v>33.4165936740795</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.70719694808146</v>
+        <v>39.75040936586639</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.70719692702523</v>
+        <v>9.870982003322505</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.70719694733265</v>
+        <v>36.89668280081622</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.70719695378999</v>
+        <v>43.7816164499117</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.70719693039853</v>
+        <v>9.431710960146345</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.70719695284923</v>
+        <v>29.81664909881706</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.70719695998807</v>
+        <v>36.36835715032544</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.70719693913123</v>
+        <v>24.14178148450446</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.70719695877986</v>
+        <v>40.7466248701746</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.70719696502771</v>
+        <v>46.01184884627863</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.70719695554448</v>
+        <v>46.75386204893911</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.70719697734061</v>
+        <v>56.77967578098955</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.70719698428414</v>
+        <v>61.61690922179559</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.70719695003227</v>
+        <v>25.3584837154573</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.70719698093553</v>
+        <v>49.63916632217671</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.70719699076212</v>
+        <v>57.19524300445339</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.7071968695783</v>
+        <v>8.500138350887987</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.70719689053931</v>
+        <v>32.73439082097266</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.70719689739578</v>
+        <v>37.96372193056655</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.70719687277517</v>
+        <v>12.32817336489608</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.70719689594844</v>
+        <v>28.95318028176711</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.70719690352855</v>
+        <v>34.11893238640979</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.7071968807879</v>
+        <v>23.06871492172804</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.70719690106891</v>
+        <v>36.63228661907742</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.70719690770294</v>
+        <v>40.62101748733559</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.70719689925402</v>
+        <v>39.88345057909324</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.70719692179262</v>
+        <v>47.12180660533184</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.70719692925594</v>
+        <v>51.06687613399151</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.70719689571395</v>
+        <v>21.68499499746233</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.70719692761182</v>
+        <v>41.47700326912813</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.70719693804579</v>
+        <v>47.51144594838919</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.70719690308123</v>
+        <v>11.20582876962936</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.70719692550901</v>
+        <v>38.91656186738948</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.70719693274566</v>
+        <v>45.66132398852095</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.70719690698734</v>
+        <v>11.24076321160495</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.70719693178218</v>
+        <v>31.50207665425089</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.70719693978259</v>
+        <v>37.96394645716932</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.70719691614205</v>
+        <v>24.86855937837075</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.70719693784225</v>
+        <v>41.29823591181264</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.70719694484412</v>
+        <v>46.45078228774221</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.70719693506893</v>
+        <v>45.48088911093228</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.70719695923479</v>
+        <v>55.24452961916991</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.70719696711732</v>
+        <v>60.21831540988161</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.70719693007546</v>
+        <v>24.7696721334159</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.70719696420543</v>
+        <v>48.91025073951711</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.70719697521795</v>
+        <v>56.41117226421102</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.70719694822001</v>
+        <v>19.22753404893533</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.70719696993503</v>
+        <v>48.02085547231682</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.70719697697885</v>
+        <v>55.85053456127952</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.70719695311483</v>
+        <v>19.28341634805728</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.70719697712169</v>
+        <v>40.90430326445173</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.70719698490892</v>
+        <v>48.49874156868201</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.70719696268708</v>
+        <v>35.13272919412452</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.70719698369764</v>
+        <v>52.71809588757716</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.70719699051294</v>
+        <v>58.84407916394704</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.70719698017928</v>
+        <v>59.71798990355018</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.70719700357609</v>
+        <v>70.28827031607291</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.70719701116627</v>
+        <v>76.1069166769167</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.70719697375433</v>
+        <v>37.24291361445628</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.70719700679964</v>
+        <v>62.94590174641708</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.70719701751872</v>
+        <v>71.70990649921156</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.70719685835578</v>
+        <v>11.83918475405899</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.70719687855697</v>
+        <v>36.10715597269562</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.70719688502751</v>
+        <v>40.97397305244215</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.70719686048833</v>
+        <v>15.85443294247779</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.70719688282158</v>
+        <v>32.99606449800255</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.70719688997503</v>
+        <v>37.7165935580248</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.70719686804016</v>
+        <v>26.75702622335304</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.707196887586</v>
+        <v>40.80603340207202</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.70719689384663</v>
+        <v>44.44339189888818</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.70719688562562</v>
+        <v>43.37440291937506</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.70719690727373</v>
+        <v>50.90032314350957</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.70719691429629</v>
+        <v>54.24228884310926</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.7071968824183</v>
+        <v>24.57228455531196</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.70719691315989</v>
+        <v>44.96570993017497</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.70719692300658</v>
+        <v>50.47068130665703</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.70719688982805</v>
+        <v>13.40509142825985</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.70719691143141</v>
+        <v>41.00990863551648</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.70719691826933</v>
+        <v>47.27360842739114</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.70719689267811</v>
+        <v>13.79365306494799</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.70719691656152</v>
+        <v>34.4100225085922</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.70719692412112</v>
+        <v>40.31619996373531</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.70719690133493</v>
+        <v>27.55327708368185</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.70719692223745</v>
+        <v>44.3400413014415</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.70719692885354</v>
+        <v>49.04266187061279</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.7071969194004</v>
+        <v>47.92723559240762</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.70719694259654</v>
+        <v>57.87303425924647</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>26.70719695002383</v>
+        <v>62.09784951787053</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.70719691482989</v>
+        <v>26.79734956893925</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.70719694770527</v>
+        <v>51.34667835110209</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.70719695811102</v>
+        <v>58.18802857249085</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.70719693480394</v>
+        <v>21.53874582954211</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.70719695572814</v>
+        <v>50.23777362366435</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.70719696237748</v>
+        <v>57.55340981227171</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.70719693873864</v>
+        <v>21.93553726126356</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>26.7071969618712</v>
+        <v>43.91807952634834</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.70719696922232</v>
+        <v>50.93526337976786</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.70719694783752</v>
+        <v>37.83074331118674</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.70719696808291</v>
+        <v>55.78130730374576</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.70719697451653</v>
+        <v>61.43285983179213</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.70719696456773</v>
+        <v>61.95514044430931</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.70719698702496</v>
+        <v>72.72054052356134</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.7071969941739</v>
+        <v>77.77789039766867</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.70719695859158</v>
+        <v>39.16200945777024</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.70719699043343</v>
+        <v>65.27356508416953</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.7071970005522</v>
+        <v>73.35362250508709</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.70719687669637</v>
+        <v>18.17222159269247</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.7071968976298</v>
+        <v>43.52124960829838</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.70719690445073</v>
+        <v>48.91169333443946</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.70719688028631</v>
+        <v>22.88033784652495</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.70719690342909</v>
+        <v>40.61099601687213</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.70719691096991</v>
+        <v>45.95511229201283</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.70719688836602</v>
+        <v>34.26505162510185</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.70719690862035</v>
+        <v>48.78497998820966</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.70719691522</v>
+        <v>52.92699544488271</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.70719690661282</v>
+        <v>51.84310902721473</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>26.70719692911671</v>
+        <v>59.58232869133219</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.70719693653605</v>
+        <v>63.60385772937529</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.70719690280088</v>
+        <v>32.68624122731904</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.70719693465679</v>
+        <v>53.72775110694923</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.70719694503669</v>
+        <v>59.96762299078875</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.70719691010675</v>
+        <v>20.97267721281829</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.70719693250133</v>
+        <v>49.83741404360927</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.70719693969757</v>
+        <v>56.71449156528904</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.70719691440533</v>
+        <v>21.83113386646197</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.70719693916346</v>
+        <v>43.2369852492739</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.7071969471192</v>
+        <v>49.84303308161847</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.70719692362372</v>
+        <v>36.15368237493799</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.70719694529179</v>
+        <v>53.57478761767477</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.70719695225457</v>
+        <v>58.84905238172435</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.70719694233464</v>
+        <v>57.62876785468553</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.70719696646009</v>
+        <v>67.91517779174652</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.70719697429352</v>
+        <v>72.97372132063157</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.70719693707762</v>
+        <v>35.96521550291855</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.70719697115705</v>
+        <v>61.4055748748972</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.70719698210808</v>
+        <v>69.07106506674431</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.7071969542759</v>
+        <v>27.61147237654003</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.70719697595418</v>
+        <v>57.4938769821466</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.70719698296004</v>
+        <v>65.46877299637984</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.70719695951821</v>
+        <v>28.4771040946294</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.70719698348445</v>
+        <v>51.18041708552656</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.70719699122972</v>
+        <v>58.93186610075539</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.70719696913989</v>
+        <v>44.96692252692317</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.7071969901149</v>
+        <v>63.48804523563753</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>26.70719699689348</v>
+        <v>69.74660324322956</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.70719698643639</v>
+        <v>70.45948390338323</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.70719700978978</v>
+        <v>81.52846645259881</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.70719701733441</v>
+        <v>87.42874568463201</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>26.7071969797851</v>
+        <v>47.07957290107561</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.70719701277449</v>
+        <v>74.01329876342781</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.70719702343581</v>
+        <v>82.95435224097277</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.70719687440669</v>
+        <v>14.00573627224204</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.70719689472979</v>
+        <v>37.78621223924168</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.70719690139594</v>
+        <v>42.97502655335202</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.70719687769425</v>
+        <v>18.13932391900715</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.70719690016228</v>
+        <v>34.47650810323736</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.70719690753199</v>
+        <v>39.61488001382817</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.70719688548941</v>
+        <v>28.66902636602404</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.70719690515321</v>
+        <v>42.00812496317531</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.7071969116031</v>
+        <v>45.98561516653872</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.70719690336945</v>
+        <v>45.08712660786351</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.70719692523172</v>
+        <v>52.17353505453357</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.70719693249188</v>
+        <v>56.15338635435771</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.70719689985145</v>
+        <v>27.19870084457696</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.70719693077858</v>
+        <v>46.63204546833708</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.70719694092294</v>
+        <v>52.63785337058911</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.70719690709678</v>
+        <v>18.0982255120833</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.70719692884179</v>
+        <v>45.27367279447119</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.70719693587626</v>
+        <v>51.94058211487416</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.70719691107155</v>
+        <v>18.62673956435216</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.70719693511157</v>
+        <v>38.51488252732738</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>26.70719694288847</v>
+        <v>44.9182993234884</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.70719691997289</v>
+        <v>31.99100082257235</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.70719694101247</v>
+        <v>48.1310611244114</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.70719694781873</v>
+        <v>53.24138132483679</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.70719693829233</v>
+        <v>52.11650685930725</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.70719696173365</v>
+        <v>61.66619183088532</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.70719696940029</v>
+        <v>66.67186409912215</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.70719693335689</v>
+        <v>31.74897316584363</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.70719696644784</v>
+        <v>55.43087178422283</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.7071969771527</v>
+        <v>62.86703963133947</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.70719695051248</v>
+        <v>24.81016075480758</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.70719697156456</v>
+        <v>53.00120394633869</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>26.70719697841373</v>
+        <v>60.72798584877201</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.7071969554156</v>
+        <v>25.32664760332999</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.70719697868955</v>
+        <v>46.50283050835586</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.70719698626159</v>
+        <v>54.00904387247847</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.70719696471586</v>
+        <v>40.81675958248406</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.70719698508498</v>
+        <v>58.04925866739246</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>26.70719699171196</v>
+        <v>64.10757400175045</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.70719698164048</v>
+        <v>64.85822477543942</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.70719700433598</v>
+        <v>75.18066455409839</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.70719701171959</v>
+        <v>81.00404752144308</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>26.70719697532605</v>
+        <v>42.80811375526197</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.70719700736251</v>
+        <v>67.97133329112084</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.70719701778538</v>
+        <v>76.63714043185388</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.70719686218983</v>
+        <v>10.93146775628092</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.70719688330997</v>
+        <v>36.34906884074854</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.70719689011631</v>
+        <v>41.4924874031481</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.70719686481411</v>
+        <v>14.99703308619995</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.7071968881633</v>
+        <v>32.96189879055352</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.707196895688</v>
+        <v>38.01198751542928</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.70719687280057</v>
+        <v>26.47246233151761</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.70719689323554</v>
+        <v>41.19289140621584</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.70719689982108</v>
+        <v>45.08213296366893</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.70719689118141</v>
+        <v>44.00980512271924</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.70719691383619</v>
+        <v>51.8603113757291</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>26.70719692123156</v>
+        <v>55.50968610228804</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.70719688766093</v>
+        <v>24.42978503869827</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.70719691980096</v>
+        <v>45.77348886306263</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.70719693015866</v>
+        <v>51.64799845416157</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.70719689532074</v>
+        <v>13.23932425715344</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.70719691790839</v>
+        <v>42.13766959940709</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.70719692509745</v>
+        <v>48.72719309837171</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.70719689868639</v>
+        <v>13.48845071090545</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.70719692365798</v>
+        <v>35.08001770568598</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.70719693160579</v>
+        <v>41.35284544739753</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.70719690782447</v>
+        <v>27.93007377877544</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.70719692967936</v>
+        <v>45.51033037974902</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.7071969366352</v>
+        <v>50.49743369652033</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.70719692669454</v>
+        <v>49.3410915833333</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.70719695097291</v>
+        <v>59.70243176842433</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.70719695879042</v>
+        <v>64.3078028634816</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.70719692173843</v>
+        <v>27.32061029304342</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.70719695611169</v>
+        <v>53.0024223757038</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.7071969670518</v>
+        <v>60.25722232794097</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.70719694145051</v>
+        <v>20.71883214714319</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.7071969633236</v>
+        <v>50.68920830414166</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.70719697031842</v>
+        <v>58.38152287724094</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.70719694589154</v>
+        <v>20.99145248227306</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.70719697007314</v>
+        <v>43.93532219416711</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.70719697780621</v>
+        <v>51.36658083840238</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.70719695546942</v>
+        <v>37.60019299425241</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.70719697663292</v>
+        <v>56.33117511961253</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.70719698340082</v>
+        <v>62.30982016759093</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.70719697293283</v>
+        <v>62.97050116444248</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.7071969964373</v>
+        <v>74.16081514570884</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.70719700396461</v>
+        <v>79.63149773733515</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.70719696653038</v>
+        <v>39.2707826098991</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.70719699981623</v>
+        <v>66.50348952472091</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.70719701046075</v>
+        <v>75.04993587268505</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.70719686849582</v>
+        <v>6.005458148903749</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.70719688862868</v>
+        <v>29.32357406275664</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.70719689520753</v>
+        <v>34.29195536543031</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.70719687143043</v>
+        <v>9.630568466402844</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.70719689368815</v>
+        <v>25.65949988390811</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.70719690096134</v>
+        <v>30.57128958748556</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.70719687909208</v>
+        <v>19.88856485860445</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.70719689857181</v>
+        <v>32.9749372837388</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.70719690493723</v>
+        <v>36.7588372748565</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.70719689687549</v>
+        <v>36.05917078496747</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.70719691851988</v>
+        <v>43.05637320959046</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.70719692568731</v>
+        <v>46.736539698876</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.70719689357468</v>
+        <v>18.45377706035205</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.7071969242123</v>
+        <v>37.53877233784883</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.70719693422381</v>
+        <v>43.26541817418074</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.70719690066444</v>
+        <v>10.22396608477473</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.70719692220801</v>
+        <v>36.94137563896587</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.70719692915347</v>
+        <v>43.41836709931609</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.70719690428461</v>
+        <v>10.3072374726376</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.70719692810192</v>
+        <v>29.8917535594628</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.70719693578041</v>
+        <v>36.10642487808556</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.70719691304281</v>
+        <v>23.41311019878729</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.70719693388747</v>
+        <v>39.3058231131447</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.70719694060761</v>
+        <v>44.25751996930174</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.70719693126815</v>
+        <v>43.245304888977</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.70719695447739</v>
+        <v>52.68449198484825</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.70719696204792</v>
+        <v>57.36691123332351</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.70719692656995</v>
+        <v>23.17364997885171</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.70719695935434</v>
+        <v>46.50557412052629</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.70719696992375</v>
+        <v>53.70691748177796</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.70719694434747</v>
+        <v>17.70337611969427</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.70719696520825</v>
+        <v>45.45815274231254</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.70719697196827</v>
+        <v>52.99010844510703</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.70719694892557</v>
+        <v>17.74409635337923</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.70719697198804</v>
+        <v>38.63390830673372</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.70719697946152</v>
+        <v>45.94910697318896</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.707196958089</v>
+        <v>32.96580510559227</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.70719697827304</v>
+        <v>49.9696551997401</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.70719698481375</v>
+        <v>55.86711283375179</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.70719697492705</v>
+        <v>56.56035246534434</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.70719699739988</v>
+        <v>66.77109093188086</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.70719700468841</v>
+        <v>72.29375235308123</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.7071969688405</v>
+        <v>34.82635270057379</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.70719700058586</v>
+        <v>59.65670946096695</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.70719701087306</v>
+        <v>68.08915839455709</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>26.70719687417392</v>
+        <v>11.02080523578153</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.70719689438746</v>
+        <v>34.53277330382283</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.70719690102575</v>
+        <v>39.72122998059346</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.7071968774417</v>
+        <v>15.00848946886377</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.70719689978861</v>
+        <v>31.10353801861814</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.70719690712751</v>
+        <v>36.24397081937316</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.70719688519278</v>
+        <v>25.36164164016703</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.70719690475057</v>
+        <v>38.49119704877201</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>26.7071969111735</v>
+        <v>42.47206694954048</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.70719690301301</v>
+        <v>41.72965844225617</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.70719692476039</v>
+        <v>48.71553187977693</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.70719693199089</v>
+        <v>52.70261935117504</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.70719689954311</v>
+        <v>24.10480895593343</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.7071969303035</v>
+        <v>43.26114873787677</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.70719694040545</v>
+        <v>49.26895037558293</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.70719690665033</v>
+        <v>14.73731250661415</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.7071969282784</v>
+        <v>41.63043216657191</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.70719693528395</v>
+        <v>48.31902510881704</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.70719691059841</v>
+        <v>15.12802626921876</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.70719693450915</v>
+        <v>34.76219312271634</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.70719694225406</v>
+        <v>41.19094331181486</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.70719691944868</v>
+        <v>28.28694482594168</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.70719694037511</v>
+        <v>44.20761063649067</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.70719694715339</v>
+        <v>49.34242030250906</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.7071969377047</v>
+        <v>48.33173621536881</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.70719696102308</v>
+        <v>57.77586306311397</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>26.7071969686588</v>
+        <v>62.79263325271233</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.70719693282525</v>
+        <v>28.23201276322305</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.70719696573824</v>
+        <v>51.62172781338885</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.70719697639908</v>
+        <v>59.08670973289186</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.70719694986509</v>
+        <v>21.6494036522436</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.70719697080398</v>
+        <v>49.56669416487075</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.70719697762459</v>
+        <v>57.30594752056609</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.70719695473621</v>
+        <v>22.0319739164566</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.70719697788502</v>
+        <v>42.96115721895073</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.70719698542549</v>
+        <v>50.48233214847642</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.7071969639827</v>
+        <v>37.31957942878735</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.70719698424231</v>
+        <v>54.3391798561333</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>26.70719699084164</v>
+        <v>60.41372592208572</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.70719698084757</v>
+        <v>61.25612479878188</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.70719700342387</v>
+        <v>71.47217119840377</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.70719701077724</v>
+        <v>77.30599741539696</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.70719697459377</v>
+        <v>39.47049105431687</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.70719700645798</v>
+        <v>64.34906440150093</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.70719701683739</v>
+        <v>73.03311080365229</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.70719687034515</v>
+        <v>16.85066113386847</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.70719689125138</v>
+        <v>41.30193795698284</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.70719689804825</v>
+        <v>46.39555834139654</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>26.70719687364859</v>
+        <v>21.56561802147905</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>26.70719689676131</v>
+        <v>38.59641496242901</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.70719690427553</v>
+        <v>43.63135337883156</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.70719688162799</v>
+        <v>32.46651603277233</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.70719690185601</v>
+        <v>46.42203220169819</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.70719690843238</v>
+        <v>50.31421609535363</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.70719689995276</v>
+        <v>49.11674374610175</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.7071969224176</v>
+        <v>56.48490370489129</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>26.70719692980257</v>
+        <v>60.16369644117208</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.7071968963493</v>
+        <v>30.54668200645559</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.70719692816382</v>
+        <v>50.79033330858006</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.70719693850711</v>
+        <v>56.67128433735996</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.70719690366249</v>
+        <v>19.08202195101777</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.70719692603112</v>
+        <v>46.94254432598706</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.70719693320479</v>
+        <v>53.43467454191908</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.70719690767915</v>
+        <v>20.05013011752158</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>26.7071969324086</v>
+        <v>40.65140580424664</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.7071969403394</v>
+        <v>46.85616217676156</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.70719691680012</v>
+        <v>33.82187473787493</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.70719693844309</v>
+        <v>50.58794591233203</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>26.70719694538404</v>
+        <v>55.53880454148332</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.70719693559355</v>
+        <v>54.24191281074749</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.70719695967822</v>
+        <v>64.05914695311675</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.70719696747799</v>
+        <v>68.6763761552187</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.70719693054733</v>
+        <v>33.23194303377144</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.70719696458728</v>
+        <v>57.74241614451709</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>26.70719697550398</v>
+        <v>64.94452177647031</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.70719694870369</v>
+        <v>26.32093519883133</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.70719697036187</v>
+        <v>55.22592641412578</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.70719697734011</v>
+        <v>62.77658424363592</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.70719695371187</v>
+        <v>27.22986863959002</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.70719697765589</v>
+        <v>49.1471487607934</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.70719698537062</v>
+        <v>56.4634500062203</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.70719696325521</v>
+        <v>43.16892125720499</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>26.70719698421078</v>
+        <v>61.05280467450334</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>26.70719699096263</v>
+        <v>66.95592213219578</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.70719698063351</v>
+        <v>67.41913229991738</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>26.7071970039485</v>
+        <v>78.02717982579816</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>26.70719701145635</v>
+        <v>83.46345446913527</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>26.70719697416578</v>
+        <v>44.69123047432967</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.70719700712459</v>
+        <v>70.71437011239317</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>26.70719701774387</v>
+        <v>79.15382662918981</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>26.70719686555374</v>
+        <v>11.4104078313032</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>26.70719688668435</v>
+        <v>36.85034376002858</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.70719689350408</v>
+        <v>42.01598919245325</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.70719686845271</v>
+        <v>15.56452109710316</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.70719689181347</v>
+        <v>33.55251276577938</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.70719689935297</v>
+        <v>38.63064994616072</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.7071968764785</v>
+        <v>27.02392336820785</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.7071968969236</v>
+        <v>41.76563007958519</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>26.70719690352209</v>
+        <v>45.68043210541822</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.70719689487306</v>
+        <v>44.60260971400332</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.70719691754955</v>
+        <v>52.45839720935126</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>26.70719692495978</v>
+        <v>56.14449778035133</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>26.70719689126592</v>
+        <v>25.05555279466273</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.70719692342188</v>
+        <v>46.4203867331922</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>26.70719693379996</v>
+        <v>52.32723813708666</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>26.70719689874392</v>
+        <v>13.76622621233868</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.70719692134318</v>
+        <v>42.69051875114521</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.70719692854456</v>
+        <v>49.30893475607292</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.70719690237648</v>
+        <v>14.10703881796591</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.70719692736089</v>
+        <v>35.72655208143081</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>26.70719693532232</v>
+        <v>42.03470229047399</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.70719691155198</v>
+        <v>28.52171520359716</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>26.70719693341809</v>
+        <v>46.12821919498141</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.70719694038585</v>
+        <v>51.14699155326073</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.70719693043258</v>
+        <v>49.96897197067586</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>26.70719695473541</v>
+        <v>60.33553874983036</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.70719696256653</v>
+        <v>64.98716308590274</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>26.70719692538767</v>
+        <v>27.98644452260356</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>26.70719695977857</v>
+        <v>53.69673322456584</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>26.70719697073744</v>
+        <v>60.99028438480107</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>26.7071969444164</v>
+        <v>20.74687707116732</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.70719696629727</v>
+        <v>50.71306545014603</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>26.70719697330574</v>
+        <v>58.44251767240041</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.70719694908827</v>
+        <v>21.08898263165473</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>26.70719697327849</v>
+        <v>44.02993161639692</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.70719698102664</v>
+        <v>51.50383379202117</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.70719695869317</v>
+        <v>37.65311150523842</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>26.70719697986421</v>
+        <v>56.38290909552285</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.70719698664532</v>
+        <v>62.39964737963203</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.7071969761629</v>
+        <v>63.05216272585594</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>26.7071969996885</v>
+        <v>74.23756706025743</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.70719700723034</v>
+        <v>79.75322888079705</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>26.70719696968443</v>
+        <v>39.41077021932024</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.70719700298212</v>
+        <v>66.63721057659644</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>26.70719701364742</v>
+        <v>75.23087722724128</v>
       </c>
     </row>
   </sheetData>
